--- a/notebooks/am_all_tram_stations.xlsx
+++ b/notebooks/am_all_tram_stations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E475"/>
+  <dimension ref="A1:G475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>geometry</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>geo_x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>geo_y</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +496,12 @@
           <t>POINT (4.8521827 52.3580481)</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>4.8521827</v>
+      </c>
+      <c r="G2" t="n">
+        <v>52.3580481</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,6 +529,12 @@
           <t>POINT (4.9193627 52.3635043)</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>4.9193627</v>
+      </c>
+      <c r="G3" t="n">
+        <v>52.3635043</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,6 +562,12 @@
           <t>POINT (4.9053602 52.3679611)</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>4.9053602</v>
+      </c>
+      <c r="G4" t="n">
+        <v>52.3679611</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -567,6 +595,12 @@
           <t>POINT (4.8792047 52.3813125)</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>4.8792047</v>
+      </c>
+      <c r="G5" t="n">
+        <v>52.3813125</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,6 +628,12 @@
           <t>POINT (4.8851416 52.388084)</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>4.8851416</v>
+      </c>
+      <c r="G6" t="n">
+        <v>52.388084</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -621,6 +661,12 @@
           <t>POINT (4.8749198 52.3844185)</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>4.8749198</v>
+      </c>
+      <c r="G7" t="n">
+        <v>52.3844185</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -648,6 +694,12 @@
           <t>POINT (4.8936441 52.3735332)</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>4.8936441</v>
+      </c>
+      <c r="G8" t="n">
+        <v>52.3735332</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -675,6 +727,12 @@
           <t>POINT (4.9289422 52.3609314)</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>4.9289422</v>
+      </c>
+      <c r="G9" t="n">
+        <v>52.3609314</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -702,6 +760,12 @@
           <t>POINT (4.8820871 52.3531224)</t>
         </is>
       </c>
+      <c r="F10" t="n">
+        <v>4.8820871</v>
+      </c>
+      <c r="G10" t="n">
+        <v>52.3531224</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -729,6 +793,12 @@
           <t>POINT (4.8796377 52.3566951)</t>
         </is>
       </c>
+      <c r="F11" t="n">
+        <v>4.8796377</v>
+      </c>
+      <c r="G11" t="n">
+        <v>52.3566951</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -756,6 +826,12 @@
           <t>POINT (4.8791849 52.3785896)</t>
         </is>
       </c>
+      <c r="F12" t="n">
+        <v>4.8791849</v>
+      </c>
+      <c r="G12" t="n">
+        <v>52.3785896</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -783,6 +859,12 @@
           <t>POINT (4.8785423 52.3783985)</t>
         </is>
       </c>
+      <c r="F13" t="n">
+        <v>4.8785423</v>
+      </c>
+      <c r="G13" t="n">
+        <v>52.3783985</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -810,6 +892,12 @@
           <t>POINT (4.875268 52.3784783)</t>
         </is>
       </c>
+      <c r="F14" t="n">
+        <v>4.875268</v>
+      </c>
+      <c r="G14" t="n">
+        <v>52.3784783</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -837,6 +925,12 @@
           <t>POINT (4.8729548 52.3750097)</t>
         </is>
       </c>
+      <c r="F15" t="n">
+        <v>4.8729548</v>
+      </c>
+      <c r="G15" t="n">
+        <v>52.3750097</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -864,6 +958,12 @@
           <t>POINT (4.872531 52.3742987)</t>
         </is>
       </c>
+      <c r="F16" t="n">
+        <v>4.872531</v>
+      </c>
+      <c r="G16" t="n">
+        <v>52.3742987</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -891,6 +991,12 @@
           <t>POINT (4.9324425 52.3659327)</t>
         </is>
       </c>
+      <c r="F17" t="n">
+        <v>4.9324425</v>
+      </c>
+      <c r="G17" t="n">
+        <v>52.3659327</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -918,6 +1024,12 @@
           <t>POINT (4.9272032 52.3659058)</t>
         </is>
       </c>
+      <c r="F18" t="n">
+        <v>4.9272032</v>
+      </c>
+      <c r="G18" t="n">
+        <v>52.3659058</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -945,6 +1057,12 @@
           <t>POINT (4.9019846 52.3669934)</t>
         </is>
       </c>
+      <c r="F19" t="n">
+        <v>4.9019846</v>
+      </c>
+      <c r="G19" t="n">
+        <v>52.3669934</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -972,6 +1090,12 @@
           <t>POINT (4.887104 52.3609734)</t>
         </is>
       </c>
+      <c r="F20" t="n">
+        <v>4.887104</v>
+      </c>
+      <c r="G20" t="n">
+        <v>52.3609734</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -999,6 +1123,12 @@
           <t>POINT (4.9348327 52.3730107)</t>
         </is>
       </c>
+      <c r="F21" t="n">
+        <v>4.9348327</v>
+      </c>
+      <c r="G21" t="n">
+        <v>52.3730107</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1026,6 +1156,12 @@
           <t>POINT (4.8501741 52.3515256)</t>
         </is>
       </c>
+      <c r="F22" t="n">
+        <v>4.8501741</v>
+      </c>
+      <c r="G22" t="n">
+        <v>52.3515256</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1053,6 +1189,12 @@
           <t>POINT (4.8495922 52.3511681)</t>
         </is>
       </c>
+      <c r="F23" t="n">
+        <v>4.8495922</v>
+      </c>
+      <c r="G23" t="n">
+        <v>52.3511681</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1080,6 +1222,12 @@
           <t>POINT (4.8909623 52.3599031)</t>
         </is>
       </c>
+      <c r="F24" t="n">
+        <v>4.8909623</v>
+      </c>
+      <c r="G24" t="n">
+        <v>52.3599031</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1107,6 +1255,12 @@
           <t>POINT (4.9520639 52.3652037)</t>
         </is>
       </c>
+      <c r="F25" t="n">
+        <v>4.9520639</v>
+      </c>
+      <c r="G25" t="n">
+        <v>52.3652037</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1134,6 +1288,12 @@
           <t>POINT (4.8716334 52.3027943)</t>
         </is>
       </c>
+      <c r="F26" t="n">
+        <v>4.8716334</v>
+      </c>
+      <c r="G26" t="n">
+        <v>52.3027943</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1161,6 +1321,12 @@
           <t>POINT (4.8678081 52.2964918)</t>
         </is>
       </c>
+      <c r="F27" t="n">
+        <v>4.8678081</v>
+      </c>
+      <c r="G27" t="n">
+        <v>52.2964918</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1188,6 +1354,12 @@
           <t>POINT (4.8342872 52.3514907)</t>
         </is>
       </c>
+      <c r="F28" t="n">
+        <v>4.8342872</v>
+      </c>
+      <c r="G28" t="n">
+        <v>52.3514907</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1215,6 +1387,12 @@
           <t>POINT (4.8242594 52.3466865)</t>
         </is>
       </c>
+      <c r="F29" t="n">
+        <v>4.8242594</v>
+      </c>
+      <c r="G29" t="n">
+        <v>52.3466865</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1242,6 +1420,12 @@
           <t>POINT (4.8767774 52.3426151)</t>
         </is>
       </c>
+      <c r="F30" t="n">
+        <v>4.8767774</v>
+      </c>
+      <c r="G30" t="n">
+        <v>52.3426151</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1269,6 +1453,12 @@
           <t>POINT (4.8921974 52.3402318)</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>4.8921974</v>
+      </c>
+      <c r="G31" t="n">
+        <v>52.3402318</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1296,6 +1486,12 @@
           <t>POINT (4.8575492 52.3492152)</t>
         </is>
       </c>
+      <c r="F32" t="n">
+        <v>4.8575492</v>
+      </c>
+      <c r="G32" t="n">
+        <v>52.3492152</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1323,6 +1519,12 @@
           <t>POINT (4.8795995 52.3560193)</t>
         </is>
       </c>
+      <c r="F33" t="n">
+        <v>4.8795995</v>
+      </c>
+      <c r="G33" t="n">
+        <v>52.3560193</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1350,6 +1552,12 @@
           <t>POINT (4.8156883 52.3464422)</t>
         </is>
       </c>
+      <c r="F34" t="n">
+        <v>4.8156883</v>
+      </c>
+      <c r="G34" t="n">
+        <v>52.3464422</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1377,6 +1585,12 @@
           <t>POINT (4.8110474 52.3463857)</t>
         </is>
       </c>
+      <c r="F35" t="n">
+        <v>4.8110474</v>
+      </c>
+      <c r="G35" t="n">
+        <v>52.3463857</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1404,6 +1618,12 @@
           <t>POINT (4.8036706 52.3449284)</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>4.8036706</v>
+      </c>
+      <c r="G36" t="n">
+        <v>52.3449284</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1431,6 +1651,12 @@
           <t>POINT (4.8041222 52.3450454)</t>
         </is>
       </c>
+      <c r="F37" t="n">
+        <v>4.8041222</v>
+      </c>
+      <c r="G37" t="n">
+        <v>52.3450454</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1458,6 +1684,12 @@
           <t>POINT (4.9134308 52.3772063)</t>
         </is>
       </c>
+      <c r="F38" t="n">
+        <v>4.9134308</v>
+      </c>
+      <c r="G38" t="n">
+        <v>52.3772063</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1485,6 +1717,12 @@
           <t>POINT (4.8522191 52.2804726)</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>4.8522191</v>
+      </c>
+      <c r="G39" t="n">
+        <v>52.2804726</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1512,6 +1750,12 @@
           <t>POINT (4.8458857 52.2831286)</t>
         </is>
       </c>
+      <c r="F40" t="n">
+        <v>4.8458857</v>
+      </c>
+      <c r="G40" t="n">
+        <v>52.2831286</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1539,6 +1783,12 @@
           <t>POINT (4.8310348 52.2748113)</t>
         </is>
       </c>
+      <c r="F41" t="n">
+        <v>4.8310348</v>
+      </c>
+      <c r="G41" t="n">
+        <v>52.2748113</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1566,6 +1816,12 @@
           <t>POINT (4.8401257 52.3579358)</t>
         </is>
       </c>
+      <c r="F42" t="n">
+        <v>4.8401257</v>
+      </c>
+      <c r="G42" t="n">
+        <v>52.3579358</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1593,6 +1849,12 @@
           <t>POINT (4.834559 52.3578798)</t>
         </is>
       </c>
+      <c r="F43" t="n">
+        <v>4.834559</v>
+      </c>
+      <c r="G43" t="n">
+        <v>52.3578798</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1620,6 +1882,12 @@
           <t>POINT (4.8531786 52.3647729)</t>
         </is>
       </c>
+      <c r="F44" t="n">
+        <v>4.8531786</v>
+      </c>
+      <c r="G44" t="n">
+        <v>52.3647729</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1647,6 +1915,12 @@
           <t>POINT (4.8107529 52.3565093)</t>
         </is>
       </c>
+      <c r="F45" t="n">
+        <v>4.8107529</v>
+      </c>
+      <c r="G45" t="n">
+        <v>52.3565093</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1674,6 +1948,12 @@
           <t>POINT (4.8509943 52.3580728)</t>
         </is>
       </c>
+      <c r="F46" t="n">
+        <v>4.8509943</v>
+      </c>
+      <c r="G46" t="n">
+        <v>52.3580728</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1701,6 +1981,12 @@
           <t>POINT (4.8456281 52.3515685)</t>
         </is>
       </c>
+      <c r="F47" t="n">
+        <v>4.8456281</v>
+      </c>
+      <c r="G47" t="n">
+        <v>52.3515685</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1728,6 +2014,12 @@
           <t>POINT (4.870782 52.3560251)</t>
         </is>
       </c>
+      <c r="F48" t="n">
+        <v>4.870782</v>
+      </c>
+      <c r="G48" t="n">
+        <v>52.3560251</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1755,6 +2047,12 @@
           <t>POINT (4.8812446 52.358854)</t>
         </is>
       </c>
+      <c r="F49" t="n">
+        <v>4.8812446</v>
+      </c>
+      <c r="G49" t="n">
+        <v>52.358854</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1782,6 +2080,12 @@
           <t>POINT (4.8450525 52.2833338)</t>
         </is>
       </c>
+      <c r="F50" t="n">
+        <v>4.8450525</v>
+      </c>
+      <c r="G50" t="n">
+        <v>52.2833338</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1809,6 +2113,12 @@
           <t>POINT (4.8513367 52.2806292)</t>
         </is>
       </c>
+      <c r="F51" t="n">
+        <v>4.8513367</v>
+      </c>
+      <c r="G51" t="n">
+        <v>52.2806292</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1836,6 +2146,12 @@
           <t>POINT (4.8569707 52.2808905)</t>
         </is>
       </c>
+      <c r="F52" t="n">
+        <v>4.8569707</v>
+      </c>
+      <c r="G52" t="n">
+        <v>52.2808905</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1863,6 +2179,12 @@
           <t>POINT (4.8670933 52.3012694)</t>
         </is>
       </c>
+      <c r="F53" t="n">
+        <v>4.8670933</v>
+      </c>
+      <c r="G53" t="n">
+        <v>52.3012694</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1890,6 +2212,12 @@
           <t>POINT (4.8686793 52.3382075)</t>
         </is>
       </c>
+      <c r="F54" t="n">
+        <v>4.8686793</v>
+      </c>
+      <c r="G54" t="n">
+        <v>52.3382075</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1917,6 +2245,12 @@
           <t>POINT (4.8400481 52.2920559)</t>
         </is>
       </c>
+      <c r="F55" t="n">
+        <v>4.8400481</v>
+      </c>
+      <c r="G55" t="n">
+        <v>52.2920559</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1944,6 +2278,12 @@
           <t>POINT (4.8552783 52.3153498)</t>
         </is>
       </c>
+      <c r="F56" t="n">
+        <v>4.8552783</v>
+      </c>
+      <c r="G56" t="n">
+        <v>52.3153498</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1971,6 +2311,12 @@
           <t>POINT (4.8835037 52.384972)</t>
         </is>
       </c>
+      <c r="F57" t="n">
+        <v>4.8835037</v>
+      </c>
+      <c r="G57" t="n">
+        <v>52.384972</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1998,6 +2344,12 @@
           <t>POINT (4.8446631 52.3694262)</t>
         </is>
       </c>
+      <c r="F58" t="n">
+        <v>4.8446631</v>
+      </c>
+      <c r="G58" t="n">
+        <v>52.3694262</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2025,6 +2377,12 @@
           <t>POINT (4.8029118 52.3772607)</t>
         </is>
       </c>
+      <c r="F59" t="n">
+        <v>4.8029118</v>
+      </c>
+      <c r="G59" t="n">
+        <v>52.3772607</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2052,6 +2410,12 @@
           <t>POINT (4.9474911 52.3432024)</t>
         </is>
       </c>
+      <c r="F60" t="n">
+        <v>4.9474911</v>
+      </c>
+      <c r="G60" t="n">
+        <v>52.3432024</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2079,6 +2443,12 @@
           <t>POINT (4.8032411 52.3590594)</t>
         </is>
       </c>
+      <c r="F61" t="n">
+        <v>4.8032411</v>
+      </c>
+      <c r="G61" t="n">
+        <v>52.3590594</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2106,6 +2476,12 @@
           <t>POINT (4.8565436 52.3279919)</t>
         </is>
       </c>
+      <c r="F62" t="n">
+        <v>4.8565436</v>
+      </c>
+      <c r="G62" t="n">
+        <v>52.3279919</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2133,6 +2509,12 @@
           <t>POINT (4.8544501 52.3352796)</t>
         </is>
       </c>
+      <c r="F63" t="n">
+        <v>4.8544501</v>
+      </c>
+      <c r="G63" t="n">
+        <v>52.3352796</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2160,6 +2542,12 @@
           <t>POINT (4.8524016 52.3411779)</t>
         </is>
       </c>
+      <c r="F64" t="n">
+        <v>4.8524016</v>
+      </c>
+      <c r="G64" t="n">
+        <v>52.3411779</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2187,6 +2575,12 @@
           <t>POINT (4.8708148 52.3710541)</t>
         </is>
       </c>
+      <c r="F65" t="n">
+        <v>4.8708148</v>
+      </c>
+      <c r="G65" t="n">
+        <v>52.3710541</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2214,6 +2608,12 @@
           <t>POINT (4.9373469 52.3768181)</t>
         </is>
       </c>
+      <c r="F66" t="n">
+        <v>4.9373469</v>
+      </c>
+      <c r="G66" t="n">
+        <v>52.3768181</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2241,6 +2641,12 @@
           <t>POINT (4.9373223 52.3766133)</t>
         </is>
       </c>
+      <c r="F67" t="n">
+        <v>4.9373223</v>
+      </c>
+      <c r="G67" t="n">
+        <v>52.3766133</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2268,6 +2674,12 @@
           <t>POINT (4.8730291 52.3467738)</t>
         </is>
       </c>
+      <c r="F68" t="n">
+        <v>4.8730291</v>
+      </c>
+      <c r="G68" t="n">
+        <v>52.3467738</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2295,6 +2707,12 @@
           <t>POINT (4.8762769 52.3468693)</t>
         </is>
       </c>
+      <c r="F69" t="n">
+        <v>4.8762769</v>
+      </c>
+      <c r="G69" t="n">
+        <v>52.3468693</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2322,6 +2740,12 @@
           <t>POINT (4.8771911 52.3488198)</t>
         </is>
       </c>
+      <c r="F70" t="n">
+        <v>4.8771911</v>
+      </c>
+      <c r="G70" t="n">
+        <v>52.3488198</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2349,6 +2773,12 @@
           <t>POINT (4.877365 52.3492157)</t>
         </is>
       </c>
+      <c r="F71" t="n">
+        <v>4.877365</v>
+      </c>
+      <c r="G71" t="n">
+        <v>52.3492157</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2376,6 +2806,12 @@
           <t>POINT (4.8479601 52.3015775)</t>
         </is>
       </c>
+      <c r="F72" t="n">
+        <v>4.8479601</v>
+      </c>
+      <c r="G72" t="n">
+        <v>52.3015775</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2403,6 +2839,12 @@
           <t>POINT (4.8739688 52.3408227)</t>
         </is>
       </c>
+      <c r="F73" t="n">
+        <v>4.8739688</v>
+      </c>
+      <c r="G73" t="n">
+        <v>52.3408227</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2430,6 +2872,12 @@
           <t>POINT (4.9263002 52.3681426)</t>
         </is>
       </c>
+      <c r="F74" t="n">
+        <v>4.9263002</v>
+      </c>
+      <c r="G74" t="n">
+        <v>52.3681426</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2457,6 +2905,12 @@
           <t>POINT (4.8689764 52.3248943)</t>
         </is>
       </c>
+      <c r="F75" t="n">
+        <v>4.8689764</v>
+      </c>
+      <c r="G75" t="n">
+        <v>52.3248943</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2484,6 +2938,12 @@
           <t>POINT (4.8691021 52.3212764)</t>
         </is>
       </c>
+      <c r="F76" t="n">
+        <v>4.8691021</v>
+      </c>
+      <c r="G76" t="n">
+        <v>52.3212764</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2511,6 +2971,12 @@
           <t>POINT (4.9334664 52.3732299)</t>
         </is>
       </c>
+      <c r="F77" t="n">
+        <v>4.9334664</v>
+      </c>
+      <c r="G77" t="n">
+        <v>52.3732299</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2538,6 +3004,12 @@
           <t>POINT (4.8658574 52.3463018)</t>
         </is>
       </c>
+      <c r="F78" t="n">
+        <v>4.8658574</v>
+      </c>
+      <c r="G78" t="n">
+        <v>52.3463018</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2565,6 +3037,12 @@
           <t>POINT (4.8983188 52.3638329)</t>
         </is>
       </c>
+      <c r="F79" t="n">
+        <v>4.8983188</v>
+      </c>
+      <c r="G79" t="n">
+        <v>52.3638329</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2592,6 +3070,12 @@
           <t>POINT (4.8992936 52.3601777)</t>
         </is>
       </c>
+      <c r="F80" t="n">
+        <v>4.8992936</v>
+      </c>
+      <c r="G80" t="n">
+        <v>52.3601777</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2619,6 +3103,12 @@
           <t>POINT (4.8992468 52.3581612)</t>
         </is>
       </c>
+      <c r="F81" t="n">
+        <v>4.8992468</v>
+      </c>
+      <c r="G81" t="n">
+        <v>52.3581612</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2646,6 +3136,12 @@
           <t>POINT (4.9011051 52.3446536)</t>
         </is>
       </c>
+      <c r="F82" t="n">
+        <v>4.9011051</v>
+      </c>
+      <c r="G82" t="n">
+        <v>52.3446536</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2673,6 +3169,12 @@
           <t>POINT (4.9005615 52.3444211)</t>
         </is>
       </c>
+      <c r="F83" t="n">
+        <v>4.9005615</v>
+      </c>
+      <c r="G83" t="n">
+        <v>52.3444211</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2700,6 +3202,12 @@
           <t>POINT (4.8962714 52.3428638)</t>
         </is>
       </c>
+      <c r="F84" t="n">
+        <v>4.8962714</v>
+      </c>
+      <c r="G84" t="n">
+        <v>52.3428638</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2727,6 +3235,12 @@
           <t>POINT (4.896873 52.343118)</t>
         </is>
       </c>
+      <c r="F85" t="n">
+        <v>4.896873</v>
+      </c>
+      <c r="G85" t="n">
+        <v>52.343118</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2754,6 +3268,12 @@
           <t>POINT (4.8930059 52.341925)</t>
         </is>
       </c>
+      <c r="F86" t="n">
+        <v>4.8930059</v>
+      </c>
+      <c r="G86" t="n">
+        <v>52.341925</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2781,6 +3301,12 @@
           <t>POINT (4.8905473 52.3369049)</t>
         </is>
       </c>
+      <c r="F87" t="n">
+        <v>4.8905473</v>
+      </c>
+      <c r="G87" t="n">
+        <v>52.3369049</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2808,6 +3334,12 @@
           <t>POINT (4.9008616 52.3546903)</t>
         </is>
       </c>
+      <c r="F88" t="n">
+        <v>4.9008616</v>
+      </c>
+      <c r="G88" t="n">
+        <v>52.3546903</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2835,6 +3367,12 @@
           <t>POINT (4.9015849 52.3549446)</t>
         </is>
       </c>
+      <c r="F89" t="n">
+        <v>4.9015849</v>
+      </c>
+      <c r="G89" t="n">
+        <v>52.3549446</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2862,6 +3400,12 @@
           <t>POINT (4.9248123 52.3668676)</t>
         </is>
       </c>
+      <c r="F90" t="n">
+        <v>4.9248123</v>
+      </c>
+      <c r="G90" t="n">
+        <v>52.3668676</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2889,6 +3433,12 @@
           <t>POINT (4.9293975 52.3700769)</t>
         </is>
       </c>
+      <c r="F91" t="n">
+        <v>4.9293975</v>
+      </c>
+      <c r="G91" t="n">
+        <v>52.3700769</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2916,6 +3466,12 @@
           <t>POINT (4.8077454 52.359326)</t>
         </is>
       </c>
+      <c r="F92" t="n">
+        <v>4.8077454</v>
+      </c>
+      <c r="G92" t="n">
+        <v>52.359326</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2943,6 +3499,12 @@
           <t>POINT (4.8843839 52.3650035)</t>
         </is>
       </c>
+      <c r="F93" t="n">
+        <v>4.8843839</v>
+      </c>
+      <c r="G93" t="n">
+        <v>52.3650035</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2970,6 +3532,12 @@
           <t>POINT (4.8863435 52.3659309)</t>
         </is>
       </c>
+      <c r="F94" t="n">
+        <v>4.8863435</v>
+      </c>
+      <c r="G94" t="n">
+        <v>52.3659309</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2997,6 +3565,12 @@
           <t>POINT (5.0049024 52.3511345)</t>
         </is>
       </c>
+      <c r="F95" t="n">
+        <v>5.0049024</v>
+      </c>
+      <c r="G95" t="n">
+        <v>52.3511345</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3024,6 +3598,12 @@
           <t>POINT (4.8583402 52.3452652)</t>
         </is>
       </c>
+      <c r="F96" t="n">
+        <v>4.8583402</v>
+      </c>
+      <c r="G96" t="n">
+        <v>52.3452652</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3051,6 +3631,12 @@
           <t>POINT (4.9003819 52.3778942)</t>
         </is>
       </c>
+      <c r="F97" t="n">
+        <v>4.9003819</v>
+      </c>
+      <c r="G97" t="n">
+        <v>52.3778942</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3078,6 +3664,12 @@
           <t>POINT (4.9009769 52.3778507)</t>
         </is>
       </c>
+      <c r="F98" t="n">
+        <v>4.9009769</v>
+      </c>
+      <c r="G98" t="n">
+        <v>52.3778507</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3105,6 +3697,12 @@
           <t>POINT (4.9071213 52.3610021)</t>
         </is>
       </c>
+      <c r="F99" t="n">
+        <v>4.9071213</v>
+      </c>
+      <c r="G99" t="n">
+        <v>52.3610021</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3132,6 +3730,12 @@
           <t>POINT (4.9091584 52.3614042)</t>
         </is>
       </c>
+      <c r="F100" t="n">
+        <v>4.9091584</v>
+      </c>
+      <c r="G100" t="n">
+        <v>52.3614042</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3159,6 +3763,12 @@
           <t>POINT (4.9093615 52.3572865)</t>
         </is>
       </c>
+      <c r="F101" t="n">
+        <v>4.9093615</v>
+      </c>
+      <c r="G101" t="n">
+        <v>52.3572865</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3186,6 +3796,12 @@
           <t>POINT (4.9328494 52.3612127)</t>
         </is>
       </c>
+      <c r="F102" t="n">
+        <v>4.9328494</v>
+      </c>
+      <c r="G102" t="n">
+        <v>52.3612127</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3213,6 +3829,12 @@
           <t>POINT (4.9109989 52.3471106)</t>
         </is>
       </c>
+      <c r="F103" t="n">
+        <v>4.9109989</v>
+      </c>
+      <c r="G103" t="n">
+        <v>52.3471106</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3240,6 +3862,12 @@
           <t>POINT (4.9003351 52.3468171)</t>
         </is>
       </c>
+      <c r="F104" t="n">
+        <v>4.9003351</v>
+      </c>
+      <c r="G104" t="n">
+        <v>52.3468171</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3267,6 +3895,12 @@
           <t>POINT (4.8997164 52.3465631)</t>
         </is>
       </c>
+      <c r="F105" t="n">
+        <v>4.8997164</v>
+      </c>
+      <c r="G105" t="n">
+        <v>52.3465631</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3294,6 +3928,12 @@
           <t>POINT (4.8915256 52.3472646)</t>
         </is>
       </c>
+      <c r="F106" t="n">
+        <v>4.8915256</v>
+      </c>
+      <c r="G106" t="n">
+        <v>52.3472646</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3321,6 +3961,12 @@
           <t>POINT (4.8508513 52.3828002)</t>
         </is>
       </c>
+      <c r="F107" t="n">
+        <v>4.8508513</v>
+      </c>
+      <c r="G107" t="n">
+        <v>52.3828002</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3348,6 +3994,12 @@
           <t>POINT (4.8539004 52.3811188)</t>
         </is>
       </c>
+      <c r="F108" t="n">
+        <v>4.8539004</v>
+      </c>
+      <c r="G108" t="n">
+        <v>52.3811188</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3375,6 +4027,12 @@
           <t>POINT (4.8569721 52.3788687)</t>
         </is>
       </c>
+      <c r="F109" t="n">
+        <v>4.8569721</v>
+      </c>
+      <c r="G109" t="n">
+        <v>52.3788687</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3402,6 +4060,12 @@
           <t>POINT (4.8577243 52.3773555)</t>
         </is>
       </c>
+      <c r="F110" t="n">
+        <v>4.8577243</v>
+      </c>
+      <c r="G110" t="n">
+        <v>52.3773555</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3429,6 +4093,12 @@
           <t>POINT (4.8584711 52.3751323)</t>
         </is>
       </c>
+      <c r="F111" t="n">
+        <v>4.8584711</v>
+      </c>
+      <c r="G111" t="n">
+        <v>52.3751323</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3456,6 +4126,12 @@
           <t>POINT (4.8586427 52.3743002)</t>
         </is>
       </c>
+      <c r="F112" t="n">
+        <v>4.8586427</v>
+      </c>
+      <c r="G112" t="n">
+        <v>52.3743002</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3483,6 +4159,12 @@
           <t>POINT (4.8600128 52.371502)</t>
         </is>
       </c>
+      <c r="F113" t="n">
+        <v>4.8600128</v>
+      </c>
+      <c r="G113" t="n">
+        <v>52.371502</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3510,6 +4192,12 @@
           <t>POINT (4.8636349 52.3706925)</t>
         </is>
       </c>
+      <c r="F114" t="n">
+        <v>4.8636349</v>
+      </c>
+      <c r="G114" t="n">
+        <v>52.3706925</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3537,6 +4225,12 @@
           <t>POINT (4.9388456 52.3735665)</t>
         </is>
       </c>
+      <c r="F115" t="n">
+        <v>4.9388456</v>
+      </c>
+      <c r="G115" t="n">
+        <v>52.3735665</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3564,6 +4258,12 @@
           <t>POINT (4.9192366 52.3638735)</t>
         </is>
       </c>
+      <c r="F116" t="n">
+        <v>4.9192366</v>
+      </c>
+      <c r="G116" t="n">
+        <v>52.3638735</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3591,6 +4291,12 @@
           <t>POINT (4.9135923 52.3623479)</t>
         </is>
       </c>
+      <c r="F117" t="n">
+        <v>4.9135923</v>
+      </c>
+      <c r="G117" t="n">
+        <v>52.3623479</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3618,6 +4324,12 @@
           <t>POINT (4.8921024 52.3595051)</t>
         </is>
       </c>
+      <c r="F118" t="n">
+        <v>4.8921024</v>
+      </c>
+      <c r="G118" t="n">
+        <v>52.3595051</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3645,6 +4357,12 @@
           <t>POINT (4.8788587 52.3780596)</t>
         </is>
       </c>
+      <c r="F119" t="n">
+        <v>4.8788587</v>
+      </c>
+      <c r="G119" t="n">
+        <v>52.3780596</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3672,6 +4390,12 @@
           <t>POINT (4.8770204 52.3832175)</t>
         </is>
       </c>
+      <c r="F120" t="n">
+        <v>4.8770204</v>
+      </c>
+      <c r="G120" t="n">
+        <v>52.3832175</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3699,6 +4423,12 @@
           <t>POINT (4.8698541 52.3842644)</t>
         </is>
       </c>
+      <c r="F121" t="n">
+        <v>4.8698541</v>
+      </c>
+      <c r="G121" t="n">
+        <v>52.3842644</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3726,6 +4456,12 @@
           <t>POINT (4.9555768 52.3393768)</t>
         </is>
       </c>
+      <c r="F122" t="n">
+        <v>4.9555768</v>
+      </c>
+      <c r="G122" t="n">
+        <v>52.3393768</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3753,6 +4489,12 @@
           <t>POINT (4.935404 52.3507313)</t>
         </is>
       </c>
+      <c r="F123" t="n">
+        <v>4.935404</v>
+      </c>
+      <c r="G123" t="n">
+        <v>52.3507313</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3780,6 +4522,12 @@
           <t>POINT (4.9308725 52.353568)</t>
         </is>
       </c>
+      <c r="F124" t="n">
+        <v>4.9308725</v>
+      </c>
+      <c r="G124" t="n">
+        <v>52.353568</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3807,6 +4555,12 @@
           <t>POINT (4.9272293 52.3570067)</t>
         </is>
       </c>
+      <c r="F125" t="n">
+        <v>4.9272293</v>
+      </c>
+      <c r="G125" t="n">
+        <v>52.3570067</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3834,6 +4588,12 @@
           <t>POINT (4.9257029 52.3601162)</t>
         </is>
       </c>
+      <c r="F126" t="n">
+        <v>4.9257029</v>
+      </c>
+      <c r="G126" t="n">
+        <v>52.3601162</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3861,6 +4621,12 @@
           <t>POINT (4.92547 52.3597959)</t>
         </is>
       </c>
+      <c r="F127" t="n">
+        <v>4.92547</v>
+      </c>
+      <c r="G127" t="n">
+        <v>52.3597959</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3888,6 +4654,12 @@
           <t>POINT (4.910955 52.3667187)</t>
         </is>
       </c>
+      <c r="F128" t="n">
+        <v>4.910955</v>
+      </c>
+      <c r="G128" t="n">
+        <v>52.3667187</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3915,6 +4687,12 @@
           <t>POINT (4.9476342 52.3647569)</t>
         </is>
       </c>
+      <c r="F129" t="n">
+        <v>4.9476342</v>
+      </c>
+      <c r="G129" t="n">
+        <v>52.3647569</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3942,6 +4720,12 @@
           <t>POINT (4.9441018 52.3622746)</t>
         </is>
       </c>
+      <c r="F130" t="n">
+        <v>4.9441018</v>
+      </c>
+      <c r="G130" t="n">
+        <v>52.3622746</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3969,6 +4753,12 @@
           <t>POINT (4.9401785 52.3617259)</t>
         </is>
       </c>
+      <c r="F131" t="n">
+        <v>4.9401785</v>
+      </c>
+      <c r="G131" t="n">
+        <v>52.3617259</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3996,6 +4786,12 @@
           <t>POINT (4.9167422 52.3590732)</t>
         </is>
       </c>
+      <c r="F132" t="n">
+        <v>4.9167422</v>
+      </c>
+      <c r="G132" t="n">
+        <v>52.3590732</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4023,6 +4819,12 @@
           <t>POINT (4.8908314 52.373751)</t>
         </is>
       </c>
+      <c r="F133" t="n">
+        <v>4.8908314</v>
+      </c>
+      <c r="G133" t="n">
+        <v>52.373751</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4050,6 +4852,12 @@
           <t>POINT (4.8809562 52.381394)</t>
         </is>
       </c>
+      <c r="F134" t="n">
+        <v>4.8809562</v>
+      </c>
+      <c r="G134" t="n">
+        <v>52.381394</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4077,6 +4885,12 @@
           <t>POINT (4.7747567 52.3537327)</t>
         </is>
       </c>
+      <c r="F135" t="n">
+        <v>4.7747567</v>
+      </c>
+      <c r="G135" t="n">
+        <v>52.3537327</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4104,6 +4918,12 @@
           <t>POINT (4.7770976 52.352828)</t>
         </is>
       </c>
+      <c r="F136" t="n">
+        <v>4.7770976</v>
+      </c>
+      <c r="G136" t="n">
+        <v>52.352828</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4131,6 +4951,12 @@
           <t>POINT (4.7836582 52.3501979)</t>
         </is>
       </c>
+      <c r="F137" t="n">
+        <v>4.7836582</v>
+      </c>
+      <c r="G137" t="n">
+        <v>52.3501979</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4158,6 +4984,12 @@
           <t>POINT (4.7888748 52.3498075)</t>
         </is>
       </c>
+      <c r="F138" t="n">
+        <v>4.7888748</v>
+      </c>
+      <c r="G138" t="n">
+        <v>52.3498075</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4185,6 +5017,12 @@
           <t>POINT (4.7951129 52.3510417)</t>
         </is>
       </c>
+      <c r="F139" t="n">
+        <v>4.7951129</v>
+      </c>
+      <c r="G139" t="n">
+        <v>52.3510417</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4212,6 +5050,12 @@
           <t>POINT (4.8025285 52.3525312)</t>
         </is>
       </c>
+      <c r="F140" t="n">
+        <v>4.8025285</v>
+      </c>
+      <c r="G140" t="n">
+        <v>52.3525312</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4239,6 +5083,12 @@
           <t>POINT (4.8091215 52.353933)</t>
         </is>
       </c>
+      <c r="F141" t="n">
+        <v>4.8091215</v>
+      </c>
+      <c r="G141" t="n">
+        <v>52.353933</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4266,6 +5116,12 @@
           <t>POINT (4.7913 52.3564413)</t>
         </is>
       </c>
+      <c r="F142" t="n">
+        <v>4.7913</v>
+      </c>
+      <c r="G142" t="n">
+        <v>52.3564413</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4293,6 +5149,12 @@
           <t>POINT (4.7990044 52.3579858)</t>
         </is>
       </c>
+      <c r="F143" t="n">
+        <v>4.7990044</v>
+      </c>
+      <c r="G143" t="n">
+        <v>52.3579858</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4320,6 +5182,12 @@
           <t>POINT (4.8532957 52.3617312)</t>
         </is>
       </c>
+      <c r="F144" t="n">
+        <v>4.8532957</v>
+      </c>
+      <c r="G144" t="n">
+        <v>52.3617312</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4347,6 +5215,12 @@
           <t>POINT (4.8591799 52.3648019)</t>
         </is>
       </c>
+      <c r="F145" t="n">
+        <v>4.8591799</v>
+      </c>
+      <c r="G145" t="n">
+        <v>52.3648019</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4374,6 +5248,12 @@
           <t>POINT (4.8624057 52.3647282)</t>
         </is>
       </c>
+      <c r="F146" t="n">
+        <v>4.8624057</v>
+      </c>
+      <c r="G146" t="n">
+        <v>52.3647282</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4401,6 +5281,12 @@
           <t>POINT (4.8629428 52.3648823)</t>
         </is>
       </c>
+      <c r="F147" t="n">
+        <v>4.8629428</v>
+      </c>
+      <c r="G147" t="n">
+        <v>52.3648823</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4428,6 +5314,12 @@
           <t>POINT (4.8673314 52.3659077)</t>
         </is>
       </c>
+      <c r="F148" t="n">
+        <v>4.8673314</v>
+      </c>
+      <c r="G148" t="n">
+        <v>52.3659077</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4455,6 +5347,12 @@
           <t>POINT (4.8677297 52.3660363)</t>
         </is>
       </c>
+      <c r="F149" t="n">
+        <v>4.8677297</v>
+      </c>
+      <c r="G149" t="n">
+        <v>52.3660363</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4482,6 +5380,12 @@
           <t>POINT (4.8717631 52.3671254)</t>
         </is>
       </c>
+      <c r="F150" t="n">
+        <v>4.8717631</v>
+      </c>
+      <c r="G150" t="n">
+        <v>52.3671254</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4509,6 +5413,12 @@
           <t>POINT (4.8603541 52.3590503)</t>
         </is>
       </c>
+      <c r="F151" t="n">
+        <v>4.8603541</v>
+      </c>
+      <c r="G151" t="n">
+        <v>52.3590503</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4536,6 +5446,12 @@
           <t>POINT (4.8596776 52.3588447)</t>
         </is>
       </c>
+      <c r="F152" t="n">
+        <v>4.8596776</v>
+      </c>
+      <c r="G152" t="n">
+        <v>52.3588447</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4563,6 +5479,12 @@
           <t>POINT (4.8032895 52.3772583)</t>
         </is>
       </c>
+      <c r="F153" t="n">
+        <v>4.8032895</v>
+      </c>
+      <c r="G153" t="n">
+        <v>52.3772583</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4590,6 +5512,12 @@
           <t>POINT (4.8062691 52.3769399)</t>
         </is>
       </c>
+      <c r="F154" t="n">
+        <v>4.8062691</v>
+      </c>
+      <c r="G154" t="n">
+        <v>52.3769399</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4617,6 +5545,12 @@
           <t>POINT (4.8120231 52.3764548)</t>
         </is>
       </c>
+      <c r="F155" t="n">
+        <v>4.8120231</v>
+      </c>
+      <c r="G155" t="n">
+        <v>52.3764548</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4644,6 +5578,12 @@
           <t>POINT (4.8206483 52.3754362)</t>
         </is>
       </c>
+      <c r="F156" t="n">
+        <v>4.8206483</v>
+      </c>
+      <c r="G156" t="n">
+        <v>52.3754362</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4671,6 +5611,12 @@
           <t>POINT (4.8173607 52.3759547)</t>
         </is>
       </c>
+      <c r="F157" t="n">
+        <v>4.8173607</v>
+      </c>
+      <c r="G157" t="n">
+        <v>52.3759547</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4698,6 +5644,12 @@
           <t>POINT (4.8277027 52.3743645)</t>
         </is>
       </c>
+      <c r="F158" t="n">
+        <v>4.8277027</v>
+      </c>
+      <c r="G158" t="n">
+        <v>52.3743645</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4725,6 +5677,12 @@
           <t>POINT (4.8268013 52.3744723)</t>
         </is>
       </c>
+      <c r="F159" t="n">
+        <v>4.8268013</v>
+      </c>
+      <c r="G159" t="n">
+        <v>52.3744723</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4752,6 +5710,12 @@
           <t>POINT (4.8359077 52.3730297)</t>
         </is>
       </c>
+      <c r="F160" t="n">
+        <v>4.8359077</v>
+      </c>
+      <c r="G160" t="n">
+        <v>52.3730297</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4779,6 +5743,12 @@
           <t>POINT (4.8377996 52.3708325)</t>
         </is>
       </c>
+      <c r="F161" t="n">
+        <v>4.8377996</v>
+      </c>
+      <c r="G161" t="n">
+        <v>52.3708325</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4806,6 +5776,12 @@
           <t>POINT (4.8384594 52.3695968)</t>
         </is>
       </c>
+      <c r="F162" t="n">
+        <v>4.8384594</v>
+      </c>
+      <c r="G162" t="n">
+        <v>52.3695968</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4833,6 +5809,12 @@
           <t>POINT (4.8507957 52.3701459)</t>
         </is>
       </c>
+      <c r="F163" t="n">
+        <v>4.8507957</v>
+      </c>
+      <c r="G163" t="n">
+        <v>52.3701459</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4860,6 +5842,12 @@
           <t>POINT (4.8554942 52.3709604)</t>
         </is>
       </c>
+      <c r="F164" t="n">
+        <v>4.8554942</v>
+      </c>
+      <c r="G164" t="n">
+        <v>52.3709604</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4887,6 +5875,12 @@
           <t>POINT (4.8187509 52.3750672)</t>
         </is>
       </c>
+      <c r="F165" t="n">
+        <v>4.8187509</v>
+      </c>
+      <c r="G165" t="n">
+        <v>52.3750672</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4914,6 +5908,12 @@
           <t>POINT (4.8485891 52.3733319)</t>
         </is>
       </c>
+      <c r="F166" t="n">
+        <v>4.8485891</v>
+      </c>
+      <c r="G166" t="n">
+        <v>52.3733319</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4941,6 +5941,12 @@
           <t>POINT (4.891245 52.3727319)</t>
         </is>
       </c>
+      <c r="F167" t="n">
+        <v>4.891245</v>
+      </c>
+      <c r="G167" t="n">
+        <v>52.3727319</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4968,6 +5974,12 @@
           <t>POINT (4.8913489 52.3735587)</t>
         </is>
       </c>
+      <c r="F168" t="n">
+        <v>4.8913489</v>
+      </c>
+      <c r="G168" t="n">
+        <v>52.3735587</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4995,6 +6007,12 @@
           <t>POINT (4.9097221 52.3573493)</t>
         </is>
       </c>
+      <c r="F169" t="n">
+        <v>4.9097221</v>
+      </c>
+      <c r="G169" t="n">
+        <v>52.3573493</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5022,6 +6040,12 @@
           <t>POINT (4.8949263 52.3533345)</t>
         </is>
       </c>
+      <c r="F170" t="n">
+        <v>4.8949263</v>
+      </c>
+      <c r="G170" t="n">
+        <v>52.3533345</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5049,6 +6073,12 @@
           <t>POINT (4.8572486 52.338422)</t>
         </is>
       </c>
+      <c r="F171" t="n">
+        <v>4.8572486</v>
+      </c>
+      <c r="G171" t="n">
+        <v>52.338422</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5076,6 +6106,12 @@
           <t>POINT (4.857301 52.3382323)</t>
         </is>
       </c>
+      <c r="F172" t="n">
+        <v>4.857301</v>
+      </c>
+      <c r="G172" t="n">
+        <v>52.3382323</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5103,6 +6139,12 @@
           <t>POINT (4.8577457 52.3416051)</t>
         </is>
       </c>
+      <c r="F173" t="n">
+        <v>4.8577457</v>
+      </c>
+      <c r="G173" t="n">
+        <v>52.3416051</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5130,6 +6172,12 @@
           <t>POINT (4.8575621 52.3405981)</t>
         </is>
       </c>
+      <c r="F174" t="n">
+        <v>4.8575621</v>
+      </c>
+      <c r="G174" t="n">
+        <v>52.3405981</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5157,6 +6205,12 @@
           <t>POINT (4.8568368 52.3440249)</t>
         </is>
       </c>
+      <c r="F175" t="n">
+        <v>4.8568368</v>
+      </c>
+      <c r="G175" t="n">
+        <v>52.3440249</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5184,6 +6238,12 @@
           <t>POINT (4.8695155 52.3529363)</t>
         </is>
       </c>
+      <c r="F176" t="n">
+        <v>4.8695155</v>
+      </c>
+      <c r="G176" t="n">
+        <v>52.3529363</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5211,6 +6271,12 @@
           <t>POINT (4.8775579 52.3695272)</t>
         </is>
       </c>
+      <c r="F177" t="n">
+        <v>4.8775579</v>
+      </c>
+      <c r="G177" t="n">
+        <v>52.3695272</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5238,6 +6304,12 @@
           <t>POINT (4.9398853 52.3479273)</t>
         </is>
       </c>
+      <c r="F178" t="n">
+        <v>4.9398853</v>
+      </c>
+      <c r="G178" t="n">
+        <v>52.3479273</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5265,6 +6337,12 @@
           <t>POINT (4.8275024 52.3491038)</t>
         </is>
       </c>
+      <c r="F179" t="n">
+        <v>4.8275024</v>
+      </c>
+      <c r="G179" t="n">
+        <v>52.3491038</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5292,6 +6370,12 @@
           <t>POINT (4.8449335 52.3777823)</t>
         </is>
       </c>
+      <c r="F180" t="n">
+        <v>4.8449335</v>
+      </c>
+      <c r="G180" t="n">
+        <v>52.3777823</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5319,6 +6403,12 @@
           <t>POINT (4.8274406 52.349218)</t>
         </is>
       </c>
+      <c r="F181" t="n">
+        <v>4.8274406</v>
+      </c>
+      <c r="G181" t="n">
+        <v>52.349218</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5346,6 +6436,12 @@
           <t>POINT (4.8312794 52.3798913)</t>
         </is>
       </c>
+      <c r="F182" t="n">
+        <v>4.8312794</v>
+      </c>
+      <c r="G182" t="n">
+        <v>52.3798913</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5373,6 +6469,12 @@
           <t>POINT (4.8382938 52.3787581)</t>
         </is>
       </c>
+      <c r="F183" t="n">
+        <v>4.8382938</v>
+      </c>
+      <c r="G183" t="n">
+        <v>52.3787581</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5400,6 +6502,12 @@
           <t>POINT (4.8211591 52.3808373)</t>
         </is>
       </c>
+      <c r="F184" t="n">
+        <v>4.8211591</v>
+      </c>
+      <c r="G184" t="n">
+        <v>52.3808373</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5427,6 +6535,12 @@
           <t>POINT (4.8372054 52.378963)</t>
         </is>
       </c>
+      <c r="F185" t="n">
+        <v>4.8372054</v>
+      </c>
+      <c r="G185" t="n">
+        <v>52.378963</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5454,6 +6568,12 @@
           <t>POINT (4.8758665 52.3726552)</t>
         </is>
       </c>
+      <c r="F186" t="n">
+        <v>4.8758665</v>
+      </c>
+      <c r="G186" t="n">
+        <v>52.3726552</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5481,6 +6601,12 @@
           <t>POINT (4.8763385 52.3723364)</t>
         </is>
       </c>
+      <c r="F187" t="n">
+        <v>4.8763385</v>
+      </c>
+      <c r="G187" t="n">
+        <v>52.3723364</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5508,6 +6634,12 @@
           <t>POINT (4.8225241 52.3812253)</t>
         </is>
       </c>
+      <c r="F188" t="n">
+        <v>4.8225241</v>
+      </c>
+      <c r="G188" t="n">
+        <v>52.3812253</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5535,6 +6667,12 @@
           <t>POINT (4.8784804 52.3681689)</t>
         </is>
       </c>
+      <c r="F189" t="n">
+        <v>4.8784804</v>
+      </c>
+      <c r="G189" t="n">
+        <v>52.3681689</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5562,6 +6700,12 @@
           <t>POINT (4.8258104 52.38075)</t>
         </is>
       </c>
+      <c r="F190" t="n">
+        <v>4.8258104</v>
+      </c>
+      <c r="G190" t="n">
+        <v>52.38075</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5589,6 +6733,12 @@
           <t>POINT (4.8768971 52.368541)</t>
         </is>
       </c>
+      <c r="F191" t="n">
+        <v>4.8768971</v>
+      </c>
+      <c r="G191" t="n">
+        <v>52.368541</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5616,6 +6766,12 @@
           <t>POINT (4.8275036 52.3804505)</t>
         </is>
       </c>
+      <c r="F192" t="n">
+        <v>4.8275036</v>
+      </c>
+      <c r="G192" t="n">
+        <v>52.3804505</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5643,6 +6799,12 @@
           <t>POINT (4.8332396 52.3795507)</t>
         </is>
       </c>
+      <c r="F193" t="n">
+        <v>4.8332396</v>
+      </c>
+      <c r="G193" t="n">
+        <v>52.3795507</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5670,6 +6832,12 @@
           <t>POINT (4.8600614 52.3351977)</t>
         </is>
       </c>
+      <c r="F194" t="n">
+        <v>4.8600614</v>
+      </c>
+      <c r="G194" t="n">
+        <v>52.3351977</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5697,6 +6865,12 @@
           <t>POINT (4.8611177 52.3351485)</t>
         </is>
       </c>
+      <c r="F195" t="n">
+        <v>4.8611177</v>
+      </c>
+      <c r="G195" t="n">
+        <v>52.3351485</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5724,6 +6898,12 @@
           <t>POINT (4.8837739 52.3740565)</t>
         </is>
       </c>
+      <c r="F196" t="n">
+        <v>4.8837739</v>
+      </c>
+      <c r="G196" t="n">
+        <v>52.3740565</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5751,6 +6931,12 @@
           <t>POINT (4.8791804 52.3559245)</t>
         </is>
       </c>
+      <c r="F197" t="n">
+        <v>4.8791804</v>
+      </c>
+      <c r="G197" t="n">
+        <v>52.3559245</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5778,6 +6964,12 @@
           <t>POINT (4.8798 52.3564107)</t>
         </is>
       </c>
+      <c r="F198" t="n">
+        <v>4.8798</v>
+      </c>
+      <c r="G198" t="n">
+        <v>52.3564107</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5805,6 +6997,12 @@
           <t>POINT (4.8569523 52.3438468)</t>
         </is>
       </c>
+      <c r="F199" t="n">
+        <v>4.8569523</v>
+      </c>
+      <c r="G199" t="n">
+        <v>52.3438468</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5832,6 +7030,12 @@
           <t>POINT (4.8843359 52.3740143)</t>
         </is>
       </c>
+      <c r="F200" t="n">
+        <v>4.8843359</v>
+      </c>
+      <c r="G200" t="n">
+        <v>52.3740143</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5859,6 +7063,12 @@
           <t>POINT (4.8567453 52.351218)</t>
         </is>
       </c>
+      <c r="F201" t="n">
+        <v>4.8567453</v>
+      </c>
+      <c r="G201" t="n">
+        <v>52.351218</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5886,6 +7096,12 @@
           <t>POINT (4.8569254 52.3516105)</t>
         </is>
       </c>
+      <c r="F202" t="n">
+        <v>4.8569254</v>
+      </c>
+      <c r="G202" t="n">
+        <v>52.3516105</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5913,6 +7129,12 @@
           <t>POINT (4.870169 52.3531926)</t>
         </is>
       </c>
+      <c r="F203" t="n">
+        <v>4.870169</v>
+      </c>
+      <c r="G203" t="n">
+        <v>52.3531926</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5940,6 +7162,12 @@
           <t>POINT (4.8560802 52.3513581)</t>
         </is>
       </c>
+      <c r="F204" t="n">
+        <v>4.8560802</v>
+      </c>
+      <c r="G204" t="n">
+        <v>52.3513581</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5967,6 +7195,12 @@
           <t>POINT (4.8564723 52.3517583)</t>
         </is>
       </c>
+      <c r="F205" t="n">
+        <v>4.8564723</v>
+      </c>
+      <c r="G205" t="n">
+        <v>52.3517583</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5994,6 +7228,12 @@
           <t>POINT (4.8934715 52.3761313)</t>
         </is>
       </c>
+      <c r="F206" t="n">
+        <v>4.8934715</v>
+      </c>
+      <c r="G206" t="n">
+        <v>52.3761313</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6021,6 +7261,12 @@
           <t>POINT (4.8930014 52.3758615)</t>
         </is>
       </c>
+      <c r="F207" t="n">
+        <v>4.8930014</v>
+      </c>
+      <c r="G207" t="n">
+        <v>52.3758615</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6048,6 +7294,12 @@
           <t>POINT (4.8337504 52.3515095)</t>
         </is>
       </c>
+      <c r="F208" t="n">
+        <v>4.8337504</v>
+      </c>
+      <c r="G208" t="n">
+        <v>52.3515095</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6075,6 +7327,12 @@
           <t>POINT (4.9220599 52.3760656)</t>
         </is>
       </c>
+      <c r="F209" t="n">
+        <v>4.9220599</v>
+      </c>
+      <c r="G209" t="n">
+        <v>52.3760656</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6102,6 +7360,12 @@
           <t>POINT (4.9616961 52.3720001)</t>
         </is>
       </c>
+      <c r="F210" t="n">
+        <v>4.9616961</v>
+      </c>
+      <c r="G210" t="n">
+        <v>52.3720001</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6129,6 +7393,12 @@
           <t>POINT (4.816387 52.3464822)</t>
         </is>
       </c>
+      <c r="F211" t="n">
+        <v>4.816387</v>
+      </c>
+      <c r="G211" t="n">
+        <v>52.3464822</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6156,6 +7426,12 @@
           <t>POINT (4.8018434 52.3524319)</t>
         </is>
       </c>
+      <c r="F212" t="n">
+        <v>4.8018434</v>
+      </c>
+      <c r="G212" t="n">
+        <v>52.3524319</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6183,6 +7459,12 @@
           <t>POINT (4.8397482 52.3579573)</t>
         </is>
       </c>
+      <c r="F213" t="n">
+        <v>4.8397482</v>
+      </c>
+      <c r="G213" t="n">
+        <v>52.3579573</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6210,6 +7492,12 @@
           <t>POINT (4.9056743 52.3463657)</t>
         </is>
       </c>
+      <c r="F214" t="n">
+        <v>4.9056743</v>
+      </c>
+      <c r="G214" t="n">
+        <v>52.3463657</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6237,6 +7525,12 @@
           <t>POINT (4.905072 52.3467733)</t>
         </is>
       </c>
+      <c r="F215" t="n">
+        <v>4.905072</v>
+      </c>
+      <c r="G215" t="n">
+        <v>52.3467733</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6264,6 +7558,12 @@
           <t>POINT (4.8747145 52.3626163)</t>
         </is>
       </c>
+      <c r="F216" t="n">
+        <v>4.8747145</v>
+      </c>
+      <c r="G216" t="n">
+        <v>52.3626163</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6291,6 +7591,12 @@
           <t>POINT (4.9134821 52.358335)</t>
         </is>
       </c>
+      <c r="F217" t="n">
+        <v>4.9134821</v>
+      </c>
+      <c r="G217" t="n">
+        <v>52.358335</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6318,6 +7624,12 @@
           <t>POINT (4.8551084 52.3708621)</t>
         </is>
       </c>
+      <c r="F218" t="n">
+        <v>4.8551084</v>
+      </c>
+      <c r="G218" t="n">
+        <v>52.3708621</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6345,6 +7657,12 @@
           <t>POINT (4.8659833 52.3352308)</t>
         </is>
       </c>
+      <c r="F219" t="n">
+        <v>4.8659833</v>
+      </c>
+      <c r="G219" t="n">
+        <v>52.3352308</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6372,6 +7690,12 @@
           <t>POINT (4.8705518 52.3712485)</t>
         </is>
       </c>
+      <c r="F220" t="n">
+        <v>4.8705518</v>
+      </c>
+      <c r="G220" t="n">
+        <v>52.3712485</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6399,6 +7723,12 @@
           <t>POINT (4.8186019 52.3728449)</t>
         </is>
       </c>
+      <c r="F221" t="n">
+        <v>4.8186019</v>
+      </c>
+      <c r="G221" t="n">
+        <v>52.3728449</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6426,6 +7756,12 @@
           <t>POINT (4.904043 52.34941)</t>
         </is>
       </c>
+      <c r="F222" t="n">
+        <v>4.904043</v>
+      </c>
+      <c r="G222" t="n">
+        <v>52.34941</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6453,6 +7789,12 @@
           <t>POINT (4.9405051 52.3617404)</t>
         </is>
       </c>
+      <c r="F223" t="n">
+        <v>4.9405051</v>
+      </c>
+      <c r="G223" t="n">
+        <v>52.3617404</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6480,6 +7822,12 @@
           <t>POINT (4.8830722 52.3634714)</t>
         </is>
       </c>
+      <c r="F224" t="n">
+        <v>4.8830722</v>
+      </c>
+      <c r="G224" t="n">
+        <v>52.3634714</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6507,6 +7855,12 @@
           <t>POINT (4.8666219 52.3605256)</t>
         </is>
       </c>
+      <c r="F225" t="n">
+        <v>4.8666219</v>
+      </c>
+      <c r="G225" t="n">
+        <v>52.3605256</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6534,6 +7888,12 @@
           <t>POINT (4.8416382 52.3515418)</t>
         </is>
       </c>
+      <c r="F226" t="n">
+        <v>4.8416382</v>
+      </c>
+      <c r="G226" t="n">
+        <v>52.3515418</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6561,6 +7921,12 @@
           <t>POINT (4.83976 52.351558)</t>
         </is>
       </c>
+      <c r="F227" t="n">
+        <v>4.83976</v>
+      </c>
+      <c r="G227" t="n">
+        <v>52.351558</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6588,6 +7954,12 @@
           <t>POINT (4.8806933 52.3646825)</t>
         </is>
       </c>
+      <c r="F228" t="n">
+        <v>4.8806933</v>
+      </c>
+      <c r="G228" t="n">
+        <v>52.3646825</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6615,6 +7987,12 @@
           <t>POINT (4.8194571 52.3766604)</t>
         </is>
       </c>
+      <c r="F229" t="n">
+        <v>4.8194571</v>
+      </c>
+      <c r="G229" t="n">
+        <v>52.3766604</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6642,6 +8020,12 @@
           <t>POINT (4.8687365 52.3380116)</t>
         </is>
       </c>
+      <c r="F230" t="n">
+        <v>4.8687365</v>
+      </c>
+      <c r="G230" t="n">
+        <v>52.3380116</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6669,6 +8053,12 @@
           <t>POINT (4.8688734 52.3329804)</t>
         </is>
       </c>
+      <c r="F231" t="n">
+        <v>4.8688734</v>
+      </c>
+      <c r="G231" t="n">
+        <v>52.3329804</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6696,6 +8086,12 @@
           <t>POINT (4.8718747 52.3029279)</t>
         </is>
       </c>
+      <c r="F232" t="n">
+        <v>4.8718747</v>
+      </c>
+      <c r="G232" t="n">
+        <v>52.3029279</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6723,6 +8119,12 @@
           <t>POINT (4.8573912 52.2812036)</t>
         </is>
       </c>
+      <c r="F233" t="n">
+        <v>4.8573912</v>
+      </c>
+      <c r="G233" t="n">
+        <v>52.2812036</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6750,6 +8152,12 @@
           <t>POINT (4.8323277 52.2821847)</t>
         </is>
       </c>
+      <c r="F234" t="n">
+        <v>4.8323277</v>
+      </c>
+      <c r="G234" t="n">
+        <v>52.2821847</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6777,6 +8185,12 @@
           <t>POINT (4.7870176 52.3555825)</t>
         </is>
       </c>
+      <c r="F235" t="n">
+        <v>4.7870176</v>
+      </c>
+      <c r="G235" t="n">
+        <v>52.3555825</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6804,6 +8218,12 @@
           <t>POINT (4.7864929 52.3554481)</t>
         </is>
       </c>
+      <c r="F236" t="n">
+        <v>4.7864929</v>
+      </c>
+      <c r="G236" t="n">
+        <v>52.3554481</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6831,6 +8251,12 @@
           <t>POINT (4.8632955 52.3531864)</t>
         </is>
       </c>
+      <c r="F237" t="n">
+        <v>4.8632955</v>
+      </c>
+      <c r="G237" t="n">
+        <v>52.3531864</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6858,6 +8284,12 @@
           <t>POINT (4.8637678 52.3533499)</t>
         </is>
       </c>
+      <c r="F238" t="n">
+        <v>4.8637678</v>
+      </c>
+      <c r="G238" t="n">
+        <v>52.3533499</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6885,6 +8317,12 @@
           <t>POINT (4.776554 52.3530108)</t>
         </is>
       </c>
+      <c r="F239" t="n">
+        <v>4.776554</v>
+      </c>
+      <c r="G239" t="n">
+        <v>52.3530108</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6912,6 +8350,12 @@
           <t>POINT (4.7829483 52.3504489)</t>
         </is>
       </c>
+      <c r="F240" t="n">
+        <v>4.7829483</v>
+      </c>
+      <c r="G240" t="n">
+        <v>52.3504489</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6939,6 +8383,12 @@
           <t>POINT (4.9336328 52.3611749)</t>
         </is>
       </c>
+      <c r="F241" t="n">
+        <v>4.9336328</v>
+      </c>
+      <c r="G241" t="n">
+        <v>52.3611749</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6966,6 +8416,12 @@
           <t>POINT (4.8392172 52.3879696)</t>
         </is>
       </c>
+      <c r="F242" t="n">
+        <v>4.8392172</v>
+      </c>
+      <c r="G242" t="n">
+        <v>52.3879696</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6993,6 +8449,12 @@
           <t>POINT (4.8725518 52.3673632)</t>
         </is>
       </c>
+      <c r="F243" t="n">
+        <v>4.8725518</v>
+      </c>
+      <c r="G243" t="n">
+        <v>52.3673632</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7020,6 +8482,12 @@
           <t>POINT (4.8763837 52.3742782)</t>
         </is>
       </c>
+      <c r="F244" t="n">
+        <v>4.8763837</v>
+      </c>
+      <c r="G244" t="n">
+        <v>52.3742782</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7047,6 +8515,12 @@
           <t>POINT (4.8722954 52.3670831)</t>
         </is>
       </c>
+      <c r="F245" t="n">
+        <v>4.8722954</v>
+      </c>
+      <c r="G245" t="n">
+        <v>52.3670831</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7074,6 +8548,12 @@
           <t>POINT (4.9003434 52.3778058)</t>
         </is>
       </c>
+      <c r="F246" t="n">
+        <v>4.9003434</v>
+      </c>
+      <c r="G246" t="n">
+        <v>52.3778058</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7101,6 +8581,12 @@
           <t>POINT (4.9003629 52.3778505)</t>
         </is>
       </c>
+      <c r="F247" t="n">
+        <v>4.9003629</v>
+      </c>
+      <c r="G247" t="n">
+        <v>52.3778505</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7128,6 +8614,12 @@
           <t>POINT (4.8552771 52.3803006)</t>
         </is>
       </c>
+      <c r="F248" t="n">
+        <v>4.8552771</v>
+      </c>
+      <c r="G248" t="n">
+        <v>52.3803006</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7155,6 +8647,12 @@
           <t>POINT (4.8522251 52.3820439)</t>
         </is>
       </c>
+      <c r="F249" t="n">
+        <v>4.8522251</v>
+      </c>
+      <c r="G249" t="n">
+        <v>52.3820439</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7182,6 +8680,12 @@
           <t>POINT (4.8953791 52.3748676)</t>
         </is>
       </c>
+      <c r="F250" t="n">
+        <v>4.8953791</v>
+      </c>
+      <c r="G250" t="n">
+        <v>52.3748676</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7209,6 +8713,12 @@
           <t>POINT (4.8921252 52.3694572)</t>
         </is>
       </c>
+      <c r="F251" t="n">
+        <v>4.8921252</v>
+      </c>
+      <c r="G251" t="n">
+        <v>52.3694572</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7236,6 +8746,12 @@
           <t>POINT (4.892274 52.3697221)</t>
         </is>
       </c>
+      <c r="F252" t="n">
+        <v>4.892274</v>
+      </c>
+      <c r="G252" t="n">
+        <v>52.3697221</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7263,6 +8779,12 @@
           <t>POINT (4.8964238 52.3662601)</t>
         </is>
       </c>
+      <c r="F253" t="n">
+        <v>4.8964238</v>
+      </c>
+      <c r="G253" t="n">
+        <v>52.3662601</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7290,6 +8812,12 @@
           <t>POINT (4.9022284 52.3671715)</t>
         </is>
       </c>
+      <c r="F254" t="n">
+        <v>4.9022284</v>
+      </c>
+      <c r="G254" t="n">
+        <v>52.3671715</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7317,6 +8845,12 @@
           <t>POINT (4.8910303 52.3600132)</t>
         </is>
       </c>
+      <c r="F255" t="n">
+        <v>4.8910303</v>
+      </c>
+      <c r="G255" t="n">
+        <v>52.3600132</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7344,6 +8878,12 @@
           <t>POINT (4.9058474 52.3677535)</t>
         </is>
       </c>
+      <c r="F256" t="n">
+        <v>4.9058474</v>
+      </c>
+      <c r="G256" t="n">
+        <v>52.3677535</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7371,6 +8911,12 @@
           <t>POINT (4.9113237 52.3665623)</t>
         </is>
       </c>
+      <c r="F257" t="n">
+        <v>4.9113237</v>
+      </c>
+      <c r="G257" t="n">
+        <v>52.3665623</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7398,6 +8944,12 @@
           <t>POINT (4.8982915 52.3637916)</t>
         </is>
       </c>
+      <c r="F258" t="n">
+        <v>4.8982915</v>
+      </c>
+      <c r="G258" t="n">
+        <v>52.3637916</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7425,6 +8977,12 @@
           <t>POINT (4.8989049 52.3590024)</t>
         </is>
       </c>
+      <c r="F259" t="n">
+        <v>4.8989049</v>
+      </c>
+      <c r="G259" t="n">
+        <v>52.3590024</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7452,6 +9010,12 @@
           <t>POINT (4.9010669 52.3550346)</t>
         </is>
       </c>
+      <c r="F260" t="n">
+        <v>4.9010669</v>
+      </c>
+      <c r="G260" t="n">
+        <v>52.3550346</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7479,6 +9043,12 @@
           <t>POINT (4.90332 52.3514501)</t>
         </is>
       </c>
+      <c r="F261" t="n">
+        <v>4.90332</v>
+      </c>
+      <c r="G261" t="n">
+        <v>52.3514501</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7506,6 +9076,12 @@
           <t>POINT (4.9051006 52.3465873)</t>
         </is>
       </c>
+      <c r="F262" t="n">
+        <v>4.9051006</v>
+      </c>
+      <c r="G262" t="n">
+        <v>52.3465873</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7533,6 +9109,12 @@
           <t>POINT (4.9043407 52.3487259)</t>
         </is>
       </c>
+      <c r="F263" t="n">
+        <v>4.9043407</v>
+      </c>
+      <c r="G263" t="n">
+        <v>52.3487259</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7560,6 +9142,12 @@
           <t>POINT (4.9155317 52.3651045)</t>
         </is>
       </c>
+      <c r="F264" t="n">
+        <v>4.9155317</v>
+      </c>
+      <c r="G264" t="n">
+        <v>52.3651045</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7587,6 +9175,12 @@
           <t>POINT (4.9196097 52.3634343)</t>
         </is>
       </c>
+      <c r="F265" t="n">
+        <v>4.9196097</v>
+      </c>
+      <c r="G265" t="n">
+        <v>52.3634343</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7614,6 +9208,12 @@
           <t>POINT (4.9152768 52.3652225)</t>
         </is>
       </c>
+      <c r="F266" t="n">
+        <v>4.9152768</v>
+      </c>
+      <c r="G266" t="n">
+        <v>52.3652225</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7641,6 +9241,12 @@
           <t>POINT (4.9238286 52.3621936)</t>
         </is>
       </c>
+      <c r="F267" t="n">
+        <v>4.9238286</v>
+      </c>
+      <c r="G267" t="n">
+        <v>52.3621936</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7668,6 +9274,12 @@
           <t>POINT (4.9241559 52.361616)</t>
         </is>
       </c>
+      <c r="F268" t="n">
+        <v>4.9241559</v>
+      </c>
+      <c r="G268" t="n">
+        <v>52.361616</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7695,6 +9307,12 @@
           <t>POINT (4.9250867 52.360259)</t>
         </is>
       </c>
+      <c r="F269" t="n">
+        <v>4.9250867</v>
+      </c>
+      <c r="G269" t="n">
+        <v>52.360259</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7722,6 +9340,12 @@
           <t>POINT (4.9269018 52.3574383)</t>
         </is>
       </c>
+      <c r="F270" t="n">
+        <v>4.9269018</v>
+      </c>
+      <c r="G270" t="n">
+        <v>52.3574383</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7749,6 +9373,12 @@
           <t>POINT (4.9546574 52.33957)</t>
         </is>
       </c>
+      <c r="F271" t="n">
+        <v>4.9546574</v>
+      </c>
+      <c r="G271" t="n">
+        <v>52.33957</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7776,6 +9406,12 @@
           <t>POINT (4.934801 52.351066)</t>
         </is>
       </c>
+      <c r="F272" t="n">
+        <v>4.934801</v>
+      </c>
+      <c r="G272" t="n">
+        <v>52.351066</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7803,6 +9439,12 @@
           <t>POINT (4.9404536 52.3476135)</t>
         </is>
       </c>
+      <c r="F273" t="n">
+        <v>4.9404536</v>
+      </c>
+      <c r="G273" t="n">
+        <v>52.3476135</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7830,6 +9472,12 @@
           <t>POINT (4.9478959 52.3428971)</t>
         </is>
       </c>
+      <c r="F274" t="n">
+        <v>4.9478959</v>
+      </c>
+      <c r="G274" t="n">
+        <v>52.3428971</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7857,6 +9505,12 @@
           <t>POINT (4.912547 52.3772761)</t>
         </is>
       </c>
+      <c r="F275" t="n">
+        <v>4.912547</v>
+      </c>
+      <c r="G275" t="n">
+        <v>52.3772761</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7884,6 +9538,12 @@
           <t>POINT (4.9340409 52.3729896)</t>
         </is>
       </c>
+      <c r="F276" t="n">
+        <v>4.9340409</v>
+      </c>
+      <c r="G276" t="n">
+        <v>52.3729896</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7911,6 +9571,12 @@
           <t>POINT (4.9616739 52.3719706)</t>
         </is>
       </c>
+      <c r="F277" t="n">
+        <v>4.9616739</v>
+      </c>
+      <c r="G277" t="n">
+        <v>52.3719706</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7938,6 +9604,12 @@
           <t>POINT (4.8889206 52.368085)</t>
         </is>
       </c>
+      <c r="F278" t="n">
+        <v>4.8889206</v>
+      </c>
+      <c r="G278" t="n">
+        <v>52.368085</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7965,6 +9637,12 @@
           <t>POINT (4.968548 52.369133)</t>
         </is>
       </c>
+      <c r="F279" t="n">
+        <v>4.968548</v>
+      </c>
+      <c r="G279" t="n">
+        <v>52.369133</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7992,6 +9670,12 @@
           <t>POINT (4.9946247 52.3555154)</t>
         </is>
       </c>
+      <c r="F280" t="n">
+        <v>4.9946247</v>
+      </c>
+      <c r="G280" t="n">
+        <v>52.3555154</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8019,6 +9703,12 @@
           <t>POINT (4.9211099 52.3761672)</t>
         </is>
       </c>
+      <c r="F281" t="n">
+        <v>4.9211099</v>
+      </c>
+      <c r="G281" t="n">
+        <v>52.3761672</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8046,6 +9736,12 @@
           <t>POINT (4.9958806 52.3549103)</t>
         </is>
       </c>
+      <c r="F282" t="n">
+        <v>4.9958806</v>
+      </c>
+      <c r="G282" t="n">
+        <v>52.3549103</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8073,6 +9769,12 @@
           <t>POINT (5.0002302 52.3525961)</t>
         </is>
       </c>
+      <c r="F283" t="n">
+        <v>5.0002302</v>
+      </c>
+      <c r="G283" t="n">
+        <v>52.3525961</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8100,6 +9802,12 @@
           <t>POINT (4.9990167 52.3531807)</t>
         </is>
       </c>
+      <c r="F284" t="n">
+        <v>4.9990167</v>
+      </c>
+      <c r="G284" t="n">
+        <v>52.3531807</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8127,6 +9835,12 @@
           <t>POINT (4.876516 52.3744189)</t>
         </is>
       </c>
+      <c r="F285" t="n">
+        <v>4.876516</v>
+      </c>
+      <c r="G285" t="n">
+        <v>52.3744189</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8154,6 +9868,12 @@
           <t>POINT (4.8461556 52.3858895)</t>
         </is>
       </c>
+      <c r="F286" t="n">
+        <v>4.8461556</v>
+      </c>
+      <c r="G286" t="n">
+        <v>52.3858895</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8181,6 +9901,12 @@
           <t>POINT (4.9385662 52.3640547)</t>
         </is>
       </c>
+      <c r="F287" t="n">
+        <v>4.9385662</v>
+      </c>
+      <c r="G287" t="n">
+        <v>52.3640547</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8208,6 +9934,12 @@
           <t>POINT (4.9382411 52.3641725)</t>
         </is>
       </c>
+      <c r="F288" t="n">
+        <v>4.9382411</v>
+      </c>
+      <c r="G288" t="n">
+        <v>52.3641725</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8235,6 +9967,12 @@
           <t>POINT (4.9381702 52.3734596)</t>
         </is>
       </c>
+      <c r="F289" t="n">
+        <v>4.9381702</v>
+      </c>
+      <c r="G289" t="n">
+        <v>52.3734596</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8258,6 +9996,12 @@
           <t>POINT (4.9634834 52.3713049)</t>
         </is>
       </c>
+      <c r="F290" t="n">
+        <v>4.9634834</v>
+      </c>
+      <c r="G290" t="n">
+        <v>52.3713049</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8285,6 +10029,12 @@
           <t>POINT (4.9810143 52.3627073)</t>
         </is>
       </c>
+      <c r="F291" t="n">
+        <v>4.9810143</v>
+      </c>
+      <c r="G291" t="n">
+        <v>52.3627073</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8312,6 +10062,12 @@
           <t>POINT (4.9799507 52.3632345)</t>
         </is>
       </c>
+      <c r="F292" t="n">
+        <v>4.9799507</v>
+      </c>
+      <c r="G292" t="n">
+        <v>52.3632345</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8339,6 +10095,12 @@
           <t>POINT (4.8901788 52.3731865)</t>
         </is>
       </c>
+      <c r="F293" t="n">
+        <v>4.8901788</v>
+      </c>
+      <c r="G293" t="n">
+        <v>52.3731865</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8366,6 +10128,12 @@
           <t>POINT (4.890657 52.372357)</t>
         </is>
       </c>
+      <c r="F294" t="n">
+        <v>4.890657</v>
+      </c>
+      <c r="G294" t="n">
+        <v>52.372357</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8393,6 +10161,12 @@
           <t>POINT (4.8968199 52.3662292)</t>
         </is>
       </c>
+      <c r="F295" t="n">
+        <v>4.8968199</v>
+      </c>
+      <c r="G295" t="n">
+        <v>52.3662292</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8420,6 +10194,12 @@
           <t>POINT (4.875944 52.3718196)</t>
         </is>
       </c>
+      <c r="F296" t="n">
+        <v>4.875944</v>
+      </c>
+      <c r="G296" t="n">
+        <v>52.3718196</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8447,6 +10227,12 @@
           <t>POINT (4.8752838 52.3720538)</t>
         </is>
       </c>
+      <c r="F297" t="n">
+        <v>4.8752838</v>
+      </c>
+      <c r="G297" t="n">
+        <v>52.3720538</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8474,6 +10260,12 @@
           <t>POINT (4.9014422 52.3545776)</t>
         </is>
       </c>
+      <c r="F298" t="n">
+        <v>4.9014422</v>
+      </c>
+      <c r="G298" t="n">
+        <v>52.3545776</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8501,6 +10293,12 @@
           <t>POINT (4.893324 52.341887)</t>
         </is>
       </c>
+      <c r="F299" t="n">
+        <v>4.893324</v>
+      </c>
+      <c r="G299" t="n">
+        <v>52.341887</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8528,6 +10326,12 @@
           <t>POINT (4.8922816 52.3404324)</t>
         </is>
       </c>
+      <c r="F300" t="n">
+        <v>4.8922816</v>
+      </c>
+      <c r="G300" t="n">
+        <v>52.3404324</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8555,6 +10359,12 @@
           <t>POINT (4.8906393 52.3369161)</t>
         </is>
       </c>
+      <c r="F301" t="n">
+        <v>4.8906393</v>
+      </c>
+      <c r="G301" t="n">
+        <v>52.3369161</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8582,6 +10392,12 @@
           <t>POINT (4.889801 52.3362207)</t>
         </is>
       </c>
+      <c r="F302" t="n">
+        <v>4.889801</v>
+      </c>
+      <c r="G302" t="n">
+        <v>52.3362207</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8609,6 +10425,12 @@
           <t>POINT (4.9111583 52.3471037)</t>
         </is>
       </c>
+      <c r="F303" t="n">
+        <v>4.9111583</v>
+      </c>
+      <c r="G303" t="n">
+        <v>52.3471037</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8636,6 +10458,12 @@
           <t>POINT (4.8915363 52.350302)</t>
         </is>
       </c>
+      <c r="F304" t="n">
+        <v>4.8915363</v>
+      </c>
+      <c r="G304" t="n">
+        <v>52.350302</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8663,6 +10491,12 @@
           <t>POINT (4.8641586 52.3704221)</t>
         </is>
       </c>
+      <c r="F305" t="n">
+        <v>4.8641586</v>
+      </c>
+      <c r="G305" t="n">
+        <v>52.3704221</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8690,6 +10524,12 @@
           <t>POINT (4.8604577 52.3713902)</t>
         </is>
       </c>
+      <c r="F306" t="n">
+        <v>4.8604577</v>
+      </c>
+      <c r="G306" t="n">
+        <v>52.3713902</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8717,6 +10557,12 @@
           <t>POINT (4.8719933 52.3674579)</t>
         </is>
       </c>
+      <c r="F307" t="n">
+        <v>4.8719933</v>
+      </c>
+      <c r="G307" t="n">
+        <v>52.3674579</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8744,6 +10590,12 @@
           <t>POINT (4.8698359 52.3708243)</t>
         </is>
       </c>
+      <c r="F308" t="n">
+        <v>4.8698359</v>
+      </c>
+      <c r="G308" t="n">
+        <v>52.3708243</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8771,6 +10623,12 @@
           <t>POINT (4.8905961 52.3527058)</t>
         </is>
       </c>
+      <c r="F309" t="n">
+        <v>4.8905961</v>
+      </c>
+      <c r="G309" t="n">
+        <v>52.3527058</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8798,6 +10656,12 @@
           <t>POINT (4.8750893 52.3630125)</t>
         </is>
       </c>
+      <c r="F310" t="n">
+        <v>4.8750893</v>
+      </c>
+      <c r="G310" t="n">
+        <v>52.3630125</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8825,6 +10689,12 @@
           <t>POINT (4.8749794 52.363227)</t>
         </is>
       </c>
+      <c r="F311" t="n">
+        <v>4.8749794</v>
+      </c>
+      <c r="G311" t="n">
+        <v>52.363227</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -8852,6 +10722,12 @@
           <t>POINT (4.8911566 52.3474774)</t>
         </is>
       </c>
+      <c r="F312" t="n">
+        <v>4.8911566</v>
+      </c>
+      <c r="G312" t="n">
+        <v>52.3474774</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -8879,6 +10755,12 @@
           <t>POINT (4.878318 52.3584538)</t>
         </is>
       </c>
+      <c r="F313" t="n">
+        <v>4.878318</v>
+      </c>
+      <c r="G313" t="n">
+        <v>52.3584538</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -8906,6 +10788,12 @@
           <t>POINT (4.8781266 52.3587793)</t>
         </is>
       </c>
+      <c r="F314" t="n">
+        <v>4.8781266</v>
+      </c>
+      <c r="G314" t="n">
+        <v>52.3587793</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8933,6 +10821,12 @@
           <t>POINT (4.9063478 52.3464278)</t>
         </is>
       </c>
+      <c r="F315" t="n">
+        <v>4.9063478</v>
+      </c>
+      <c r="G315" t="n">
+        <v>52.3464278</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8960,6 +10854,12 @@
           <t>POINT (4.9905047 52.3576998)</t>
         </is>
       </c>
+      <c r="F316" t="n">
+        <v>4.9905047</v>
+      </c>
+      <c r="G316" t="n">
+        <v>52.3576998</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -8987,6 +10887,12 @@
           <t>POINT (4.7944986 52.3509515)</t>
         </is>
       </c>
+      <c r="F317" t="n">
+        <v>4.7944986</v>
+      </c>
+      <c r="G317" t="n">
+        <v>52.3509515</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9014,6 +10920,12 @@
           <t>POINT (4.7881582 52.3496935)</t>
         </is>
       </c>
+      <c r="F318" t="n">
+        <v>4.7881582</v>
+      </c>
+      <c r="G318" t="n">
+        <v>52.3496935</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9041,6 +10953,12 @@
           <t>POINT (4.874895 52.3626351)</t>
         </is>
       </c>
+      <c r="F319" t="n">
+        <v>4.874895</v>
+      </c>
+      <c r="G319" t="n">
+        <v>52.3626351</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9068,6 +10986,12 @@
           <t>POINT (4.8262383 52.3577873)</t>
         </is>
       </c>
+      <c r="F320" t="n">
+        <v>4.8262383</v>
+      </c>
+      <c r="G320" t="n">
+        <v>52.3577873</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9095,6 +11019,12 @@
           <t>POINT (4.8258953 52.3578123)</t>
         </is>
       </c>
+      <c r="F321" t="n">
+        <v>4.8258953</v>
+      </c>
+      <c r="G321" t="n">
+        <v>52.3578123</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9122,6 +11052,12 @@
           <t>POINT (4.8865383 52.3659919)</t>
         </is>
       </c>
+      <c r="F322" t="n">
+        <v>4.8865383</v>
+      </c>
+      <c r="G322" t="n">
+        <v>52.3659919</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9149,6 +11085,12 @@
           <t>POINT (4.8829633 52.3642229)</t>
         </is>
       </c>
+      <c r="F323" t="n">
+        <v>4.8829633</v>
+      </c>
+      <c r="G323" t="n">
+        <v>52.3642229</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9176,6 +11118,12 @@
           <t>POINT (4.8085181 52.3538389)</t>
         </is>
       </c>
+      <c r="F324" t="n">
+        <v>4.8085181</v>
+      </c>
+      <c r="G324" t="n">
+        <v>52.3538389</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9203,6 +11151,12 @@
           <t>POINT (4.7745043 52.3538687)</t>
         </is>
       </c>
+      <c r="F325" t="n">
+        <v>4.7745043</v>
+      </c>
+      <c r="G325" t="n">
+        <v>52.3538687</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9230,6 +11184,12 @@
           <t>POINT (4.8099119 52.35637)</t>
         </is>
       </c>
+      <c r="F326" t="n">
+        <v>4.8099119</v>
+      </c>
+      <c r="G326" t="n">
+        <v>52.35637</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9257,6 +11217,12 @@
           <t>POINT (4.8845404 52.3650457)</t>
         </is>
       </c>
+      <c r="F327" t="n">
+        <v>4.8845404</v>
+      </c>
+      <c r="G327" t="n">
+        <v>52.3650457</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9284,6 +11250,12 @@
           <t>POINT (4.8337835 52.3579004)</t>
         </is>
       </c>
+      <c r="F328" t="n">
+        <v>4.8337835</v>
+      </c>
+      <c r="G328" t="n">
+        <v>52.3579004</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9311,6 +11283,12 @@
           <t>POINT (4.8506975 52.3586176)</t>
         </is>
       </c>
+      <c r="F329" t="n">
+        <v>4.8506975</v>
+      </c>
+      <c r="G329" t="n">
+        <v>52.3586176</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9338,6 +11316,12 @@
           <t>POINT (4.8705851 52.3559987)</t>
         </is>
       </c>
+      <c r="F330" t="n">
+        <v>4.8705851</v>
+      </c>
+      <c r="G330" t="n">
+        <v>52.3559987</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9365,6 +11349,12 @@
           <t>POINT (4.8106661 52.3463027)</t>
         </is>
       </c>
+      <c r="F331" t="n">
+        <v>4.8106661</v>
+      </c>
+      <c r="G331" t="n">
+        <v>52.3463027</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9392,6 +11382,12 @@
           <t>POINT (4.8250738 52.346707)</t>
         </is>
       </c>
+      <c r="F332" t="n">
+        <v>4.8250738</v>
+      </c>
+      <c r="G332" t="n">
+        <v>52.346707</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9419,6 +11415,12 @@
           <t>POINT (4.8836242 52.3850483)</t>
         </is>
       </c>
+      <c r="F333" t="n">
+        <v>4.8836242</v>
+      </c>
+      <c r="G333" t="n">
+        <v>52.3850483</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9446,6 +11448,12 @@
           <t>POINT (4.88118 52.3816379)</t>
         </is>
       </c>
+      <c r="F334" t="n">
+        <v>4.88118</v>
+      </c>
+      <c r="G334" t="n">
+        <v>52.3816379</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9473,6 +11481,12 @@
           <t>POINT (4.8754111 52.3786007)</t>
         </is>
       </c>
+      <c r="F335" t="n">
+        <v>4.8754111</v>
+      </c>
+      <c r="G335" t="n">
+        <v>52.3786007</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9500,6 +11514,12 @@
           <t>POINT (4.8942153 52.3531905)</t>
         </is>
       </c>
+      <c r="F336" t="n">
+        <v>4.8942153</v>
+      </c>
+      <c r="G336" t="n">
+        <v>52.3531905</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9527,6 +11547,12 @@
           <t>POINT (4.9172481 52.3582391)</t>
         </is>
       </c>
+      <c r="F337" t="n">
+        <v>4.9172481</v>
+      </c>
+      <c r="G337" t="n">
+        <v>52.3582391</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9554,6 +11580,12 @@
           <t>POINT (4.9326128 52.3607965)</t>
         </is>
       </c>
+      <c r="F338" t="n">
+        <v>4.9326128</v>
+      </c>
+      <c r="G338" t="n">
+        <v>52.3607965</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9581,6 +11613,12 @@
           <t>POINT (4.9137826 52.3583909)</t>
         </is>
       </c>
+      <c r="F339" t="n">
+        <v>4.9137826</v>
+      </c>
+      <c r="G339" t="n">
+        <v>52.3583909</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9608,6 +11646,12 @@
           <t>POINT (4.9297575 52.3610986)</t>
         </is>
       </c>
+      <c r="F340" t="n">
+        <v>4.9297575</v>
+      </c>
+      <c r="G340" t="n">
+        <v>52.3610986</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9635,6 +11679,12 @@
           <t>POINT (4.9249118 52.3599165)</t>
         </is>
       </c>
+      <c r="F341" t="n">
+        <v>4.9249118</v>
+      </c>
+      <c r="G341" t="n">
+        <v>52.3599165</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -9662,6 +11712,12 @@
           <t>POINT (4.8768645 52.346674)</t>
         </is>
       </c>
+      <c r="F342" t="n">
+        <v>4.8768645</v>
+      </c>
+      <c r="G342" t="n">
+        <v>52.346674</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9689,6 +11745,12 @@
           <t>POINT (4.8768834 52.3471425)</t>
         </is>
       </c>
+      <c r="F343" t="n">
+        <v>4.8768834</v>
+      </c>
+      <c r="G343" t="n">
+        <v>52.3471425</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -9716,6 +11778,12 @@
           <t>POINT (4.8767749 52.3431074)</t>
         </is>
       </c>
+      <c r="F344" t="n">
+        <v>4.8767749</v>
+      </c>
+      <c r="G344" t="n">
+        <v>52.3431074</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -9743,6 +11811,12 @@
           <t>POINT (4.8586095 52.3647872)</t>
         </is>
       </c>
+      <c r="F345" t="n">
+        <v>4.8586095</v>
+      </c>
+      <c r="G345" t="n">
+        <v>52.3647872</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -9770,6 +11844,12 @@
           <t>POINT (4.8487242 52.3729826)</t>
         </is>
       </c>
+      <c r="F346" t="n">
+        <v>4.8487242</v>
+      </c>
+      <c r="G346" t="n">
+        <v>52.3729826</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -9797,6 +11877,12 @@
           <t>POINT (4.9185684 52.3633708)</t>
         </is>
       </c>
+      <c r="F347" t="n">
+        <v>4.9185684</v>
+      </c>
+      <c r="G347" t="n">
+        <v>52.3633708</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -9824,6 +11910,12 @@
           <t>POINT (4.9510568 52.3652467)</t>
         </is>
       </c>
+      <c r="F348" t="n">
+        <v>4.9510568</v>
+      </c>
+      <c r="G348" t="n">
+        <v>52.3652467</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -9851,6 +11943,12 @@
           <t>POINT (4.8978483 52.3594109)</t>
         </is>
       </c>
+      <c r="F349" t="n">
+        <v>4.8978483</v>
+      </c>
+      <c r="G349" t="n">
+        <v>52.3594109</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -9878,6 +11976,12 @@
           <t>POINT (4.9478662 52.3649431)</t>
         </is>
       </c>
+      <c r="F350" t="n">
+        <v>4.9478662</v>
+      </c>
+      <c r="G350" t="n">
+        <v>52.3649431</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -9905,6 +12009,12 @@
           <t>POINT (4.9433884 52.3621442)</t>
         </is>
       </c>
+      <c r="F351" t="n">
+        <v>4.9433884</v>
+      </c>
+      <c r="G351" t="n">
+        <v>52.3621442</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -9932,6 +12042,12 @@
           <t>POINT (4.8873395 52.3608307)</t>
         </is>
       </c>
+      <c r="F352" t="n">
+        <v>4.8873395</v>
+      </c>
+      <c r="G352" t="n">
+        <v>52.3608307</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -9959,6 +12075,12 @@
           <t>POINT (4.9265233 52.3683184)</t>
         </is>
       </c>
+      <c r="F353" t="n">
+        <v>4.9265233</v>
+      </c>
+      <c r="G353" t="n">
+        <v>52.3683184</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -9986,6 +12108,12 @@
           <t>POINT (4.9295997 52.3701978)</t>
         </is>
       </c>
+      <c r="F354" t="n">
+        <v>4.9295997</v>
+      </c>
+      <c r="G354" t="n">
+        <v>52.3701978</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -10013,6 +12141,12 @@
           <t>POINT (4.9242477 52.3666491)</t>
         </is>
       </c>
+      <c r="F355" t="n">
+        <v>4.9242477</v>
+      </c>
+      <c r="G355" t="n">
+        <v>52.3666491</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10040,6 +12174,12 @@
           <t>POINT (4.9344045 52.372921)</t>
         </is>
       </c>
+      <c r="F356" t="n">
+        <v>4.9344045</v>
+      </c>
+      <c r="G356" t="n">
+        <v>52.372921</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10067,6 +12207,12 @@
           <t>POINT (4.877086 52.3831444)</t>
         </is>
       </c>
+      <c r="F357" t="n">
+        <v>4.877086</v>
+      </c>
+      <c r="G357" t="n">
+        <v>52.3831444</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10094,6 +12240,12 @@
           <t>POINT (4.8791525 52.3810685)</t>
         </is>
       </c>
+      <c r="F358" t="n">
+        <v>4.8791525</v>
+      </c>
+      <c r="G358" t="n">
+        <v>52.3810685</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10121,6 +12273,12 @@
           <t>POINT (4.8751351 52.3842946)</t>
         </is>
       </c>
+      <c r="F359" t="n">
+        <v>4.8751351</v>
+      </c>
+      <c r="G359" t="n">
+        <v>52.3842946</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -10148,6 +12306,12 @@
           <t>POINT (4.8438216 52.3694429)</t>
         </is>
       </c>
+      <c r="F360" t="n">
+        <v>4.8438216</v>
+      </c>
+      <c r="G360" t="n">
+        <v>52.3694429</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -10175,6 +12339,12 @@
           <t>POINT (4.8117554 52.3765095)</t>
         </is>
       </c>
+      <c r="F361" t="n">
+        <v>4.8117554</v>
+      </c>
+      <c r="G361" t="n">
+        <v>52.3765095</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -10202,6 +12372,12 @@
           <t>POINT (4.8065746 52.3769374)</t>
         </is>
       </c>
+      <c r="F362" t="n">
+        <v>4.8065746</v>
+      </c>
+      <c r="G362" t="n">
+        <v>52.3769374</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -10229,6 +12405,12 @@
           <t>POINT (4.838103 52.3714267)</t>
         </is>
       </c>
+      <c r="F363" t="n">
+        <v>4.838103</v>
+      </c>
+      <c r="G363" t="n">
+        <v>52.3714267</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -10256,6 +12438,12 @@
           <t>POINT (4.8378389 52.3697121)</t>
         </is>
       </c>
+      <c r="F364" t="n">
+        <v>4.8378389</v>
+      </c>
+      <c r="G364" t="n">
+        <v>52.3697121</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -10283,6 +12471,12 @@
           <t>POINT (4.8350051 52.3732337)</t>
         </is>
       </c>
+      <c r="F365" t="n">
+        <v>4.8350051</v>
+      </c>
+      <c r="G365" t="n">
+        <v>52.3732337</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -10310,6 +12504,12 @@
           <t>POINT (4.8514871 52.3702349)</t>
         </is>
       </c>
+      <c r="F366" t="n">
+        <v>4.8514871</v>
+      </c>
+      <c r="G366" t="n">
+        <v>52.3702349</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -10337,6 +12537,12 @@
           <t>POINT (4.9275974 52.3659034)</t>
         </is>
       </c>
+      <c r="F367" t="n">
+        <v>4.9275974</v>
+      </c>
+      <c r="G367" t="n">
+        <v>52.3659034</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10364,6 +12570,12 @@
           <t>POINT (4.9325902 52.3658298)</t>
         </is>
       </c>
+      <c r="F368" t="n">
+        <v>4.9325902</v>
+      </c>
+      <c r="G368" t="n">
+        <v>52.3658298</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10391,6 +12603,12 @@
           <t>POINT (4.8663865 52.3351971)</t>
         </is>
       </c>
+      <c r="F369" t="n">
+        <v>4.8663865</v>
+      </c>
+      <c r="G369" t="n">
+        <v>52.3351971</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10418,6 +12636,12 @@
           <t>POINT (4.8575004 52.3490455)</t>
         </is>
       </c>
+      <c r="F370" t="n">
+        <v>4.8575004</v>
+      </c>
+      <c r="G370" t="n">
+        <v>52.3490455</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10445,6 +12669,12 @@
           <t>POINT (4.7917476 52.3565018)</t>
         </is>
       </c>
+      <c r="F371" t="n">
+        <v>4.7917476</v>
+      </c>
+      <c r="G371" t="n">
+        <v>52.3565018</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10472,6 +12702,12 @@
           <t>POINT (4.853247 52.3615937)</t>
         </is>
       </c>
+      <c r="F372" t="n">
+        <v>4.853247</v>
+      </c>
+      <c r="G372" t="n">
+        <v>52.3615937</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10499,6 +12735,12 @@
           <t>POINT (4.7995659 52.3580714)</t>
         </is>
       </c>
+      <c r="F373" t="n">
+        <v>4.7995659</v>
+      </c>
+      <c r="G373" t="n">
+        <v>52.3580714</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10526,6 +12768,12 @@
           <t>POINT (4.8032054 52.3595387)</t>
         </is>
       </c>
+      <c r="F374" t="n">
+        <v>4.8032054</v>
+      </c>
+      <c r="G374" t="n">
+        <v>52.3595387</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10553,6 +12801,12 @@
           <t>POINT (4.8531487 52.3638557)</t>
         </is>
       </c>
+      <c r="F375" t="n">
+        <v>4.8531487</v>
+      </c>
+      <c r="G375" t="n">
+        <v>52.3638557</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10580,6 +12834,12 @@
           <t>POINT (4.8080582 52.358636)</t>
         </is>
       </c>
+      <c r="F376" t="n">
+        <v>4.8080582</v>
+      </c>
+      <c r="G376" t="n">
+        <v>52.358636</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10607,6 +12867,12 @@
           <t>POINT (4.8720137 52.346695)</t>
         </is>
       </c>
+      <c r="F377" t="n">
+        <v>4.8720137</v>
+      </c>
+      <c r="G377" t="n">
+        <v>52.346695</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -10634,6 +12900,12 @@
           <t>POINT (4.8666421 52.3463735)</t>
         </is>
       </c>
+      <c r="F378" t="n">
+        <v>4.8666421</v>
+      </c>
+      <c r="G378" t="n">
+        <v>52.3463735</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -10661,6 +12933,12 @@
           <t>POINT (4.8586416 52.3452686)</t>
         </is>
       </c>
+      <c r="F379" t="n">
+        <v>4.8586416</v>
+      </c>
+      <c r="G379" t="n">
+        <v>52.3452686</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -10688,6 +12966,12 @@
           <t>POINT (4.8469734 52.3763312)</t>
         </is>
       </c>
+      <c r="F380" t="n">
+        <v>4.8469734</v>
+      </c>
+      <c r="G380" t="n">
+        <v>52.3763312</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -10715,6 +12999,12 @@
           <t>POINT (4.852596 52.3669952)</t>
         </is>
       </c>
+      <c r="F381" t="n">
+        <v>4.852596</v>
+      </c>
+      <c r="G381" t="n">
+        <v>52.3669952</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -10742,6 +13032,12 @@
           <t>POINT (4.8523612 52.3673886)</t>
         </is>
       </c>
+      <c r="F382" t="n">
+        <v>4.8523612</v>
+      </c>
+      <c r="G382" t="n">
+        <v>52.3673886</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -10769,6 +13065,12 @@
           <t>POINT (4.8674156 52.2961484)</t>
         </is>
       </c>
+      <c r="F383" t="n">
+        <v>4.8674156</v>
+      </c>
+      <c r="G383" t="n">
+        <v>52.2961484</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -10796,6 +13098,12 @@
           <t>POINT (4.8327699 52.2825723)</t>
         </is>
       </c>
+      <c r="F384" t="n">
+        <v>4.8327699</v>
+      </c>
+      <c r="G384" t="n">
+        <v>52.2825723</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -10823,6 +13131,12 @@
           <t>POINT (4.8305377 52.2743532)</t>
         </is>
       </c>
+      <c r="F385" t="n">
+        <v>4.8305377</v>
+      </c>
+      <c r="G385" t="n">
+        <v>52.2743532</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -10850,6 +13164,12 @@
           <t>POINT (4.8450157 52.3515947)</t>
         </is>
       </c>
+      <c r="F386" t="n">
+        <v>4.8450157</v>
+      </c>
+      <c r="G386" t="n">
+        <v>52.3515947</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -10877,6 +13197,12 @@
           <t>POINT (4.8692545 52.3212772)</t>
         </is>
       </c>
+      <c r="F387" t="n">
+        <v>4.8692545</v>
+      </c>
+      <c r="G387" t="n">
+        <v>52.3212772</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -10904,6 +13230,12 @@
           <t>POINT (4.9685823 52.3691619)</t>
         </is>
       </c>
+      <c r="F388" t="n">
+        <v>4.9685823</v>
+      </c>
+      <c r="G388" t="n">
+        <v>52.3691619</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -10931,6 +13263,12 @@
           <t>POINT (4.8688168 52.3325431)</t>
         </is>
       </c>
+      <c r="F389" t="n">
+        <v>4.8688168</v>
+      </c>
+      <c r="G389" t="n">
+        <v>52.3325431</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -10958,6 +13296,12 @@
           <t>POINT (4.8671267 52.3013177)</t>
         </is>
       </c>
+      <c r="F390" t="n">
+        <v>4.8671267</v>
+      </c>
+      <c r="G390" t="n">
+        <v>52.3013177</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -10985,6 +13329,12 @@
           <t>POINT (4.867149 52.3013453)</t>
         </is>
       </c>
+      <c r="F391" t="n">
+        <v>4.867149</v>
+      </c>
+      <c r="G391" t="n">
+        <v>52.3013453</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -11012,6 +13362,12 @@
           <t>POINT (4.8724478 52.3079604)</t>
         </is>
       </c>
+      <c r="F392" t="n">
+        <v>4.8724478</v>
+      </c>
+      <c r="G392" t="n">
+        <v>52.3079604</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -11039,6 +13395,12 @@
           <t>POINT (4.8725929 52.3080875)</t>
         </is>
       </c>
+      <c r="F393" t="n">
+        <v>4.8725929</v>
+      </c>
+      <c r="G393" t="n">
+        <v>52.3080875</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -11066,6 +13428,12 @@
           <t>POINT (4.8690319 52.3248972)</t>
         </is>
       </c>
+      <c r="F394" t="n">
+        <v>4.8690319</v>
+      </c>
+      <c r="G394" t="n">
+        <v>52.3248972</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -11093,6 +13461,12 @@
           <t>POINT (4.8722618 52.3121859)</t>
         </is>
       </c>
+      <c r="F395" t="n">
+        <v>4.8722618</v>
+      </c>
+      <c r="G395" t="n">
+        <v>52.3121859</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -11120,6 +13494,12 @@
           <t>POINT (4.855406 52.3156718)</t>
         </is>
       </c>
+      <c r="F396" t="n">
+        <v>4.855406</v>
+      </c>
+      <c r="G396" t="n">
+        <v>52.3156718</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -11147,6 +13527,12 @@
           <t>POINT (4.8562313 52.3493132)</t>
         </is>
       </c>
+      <c r="F397" t="n">
+        <v>4.8562313</v>
+      </c>
+      <c r="G397" t="n">
+        <v>52.3493132</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -11174,6 +13560,12 @@
           <t>POINT (4.8543795 52.3352719)</t>
         </is>
       </c>
+      <c r="F398" t="n">
+        <v>4.8543795</v>
+      </c>
+      <c r="G398" t="n">
+        <v>52.3352719</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -11201,6 +13593,12 @@
           <t>POINT (4.8560952 52.3305598)</t>
         </is>
       </c>
+      <c r="F399" t="n">
+        <v>4.8560952</v>
+      </c>
+      <c r="G399" t="n">
+        <v>52.3305598</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -11228,6 +13626,12 @@
           <t>POINT (4.8403296 52.292425)</t>
         </is>
       </c>
+      <c r="F400" t="n">
+        <v>4.8403296</v>
+      </c>
+      <c r="G400" t="n">
+        <v>52.292425</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -11255,6 +13659,12 @@
           <t>POINT (4.902591 52.3790626)</t>
         </is>
       </c>
+      <c r="F401" t="n">
+        <v>4.902591</v>
+      </c>
+      <c r="G401" t="n">
+        <v>52.3790626</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -11282,6 +13692,12 @@
           <t>POINT (4.8565037 52.3218182)</t>
         </is>
       </c>
+      <c r="F402" t="n">
+        <v>4.8565037</v>
+      </c>
+      <c r="G402" t="n">
+        <v>52.3218182</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -11309,6 +13725,12 @@
           <t>POINT (4.8465973 52.3858579)</t>
         </is>
       </c>
+      <c r="F403" t="n">
+        <v>4.8465973</v>
+      </c>
+      <c r="G403" t="n">
+        <v>52.3858579</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -11336,6 +13758,12 @@
           <t>POINT (4.8901771 52.3526769)</t>
         </is>
       </c>
+      <c r="F404" t="n">
+        <v>4.8901771</v>
+      </c>
+      <c r="G404" t="n">
+        <v>52.3526769</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -11363,6 +13791,12 @@
           <t>POINT (4.8907033 52.3570037)</t>
         </is>
       </c>
+      <c r="F405" t="n">
+        <v>4.8907033</v>
+      </c>
+      <c r="G405" t="n">
+        <v>52.3570037</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -11390,6 +13824,12 @@
           <t>POINT (4.8931342 52.3662653)</t>
         </is>
       </c>
+      <c r="F406" t="n">
+        <v>4.8931342</v>
+      </c>
+      <c r="G406" t="n">
+        <v>52.3662653</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -11417,6 +13857,12 @@
           <t>POINT (4.8930583 52.3658545)</t>
         </is>
       </c>
+      <c r="F407" t="n">
+        <v>4.8930583</v>
+      </c>
+      <c r="G407" t="n">
+        <v>52.3658545</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -11444,6 +13890,12 @@
           <t>POINT (4.8907718 52.3571177)</t>
         </is>
       </c>
+      <c r="F408" t="n">
+        <v>4.8907718</v>
+      </c>
+      <c r="G408" t="n">
+        <v>52.3571177</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11471,6 +13923,12 @@
           <t>POINT (4.8509865 52.3442966)</t>
         </is>
       </c>
+      <c r="F409" t="n">
+        <v>4.8509865</v>
+      </c>
+      <c r="G409" t="n">
+        <v>52.3442966</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -11498,6 +13956,12 @@
           <t>POINT (4.8477382 52.3013966)</t>
         </is>
       </c>
+      <c r="F410" t="n">
+        <v>4.8477382</v>
+      </c>
+      <c r="G410" t="n">
+        <v>52.3013966</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -11525,6 +13989,12 @@
           <t>POINT (4.8453672 52.2994491)</t>
         </is>
       </c>
+      <c r="F411" t="n">
+        <v>4.8453672</v>
+      </c>
+      <c r="G411" t="n">
+        <v>52.2994491</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -11552,6 +14022,12 @@
           <t>POINT (4.8564164 52.3492921)</t>
         </is>
       </c>
+      <c r="F412" t="n">
+        <v>4.8564164</v>
+      </c>
+      <c r="G412" t="n">
+        <v>52.3492921</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -11579,6 +14055,12 @@
           <t>POINT (4.8564951 52.3214358)</t>
         </is>
       </c>
+      <c r="F413" t="n">
+        <v>4.8564951</v>
+      </c>
+      <c r="G413" t="n">
+        <v>52.3214358</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -11606,6 +14088,12 @@
           <t>POINT (4.8565395 52.3274177)</t>
         </is>
       </c>
+      <c r="F414" t="n">
+        <v>4.8565395</v>
+      </c>
+      <c r="G414" t="n">
+        <v>52.3274177</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -11633,6 +14121,12 @@
           <t>POINT (4.8506593 52.3085646)</t>
         </is>
       </c>
+      <c r="F415" t="n">
+        <v>4.8506593</v>
+      </c>
+      <c r="G415" t="n">
+        <v>52.3085646</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -11660,6 +14154,12 @@
           <t>POINT (4.8507838 52.3109438)</t>
         </is>
       </c>
+      <c r="F416" t="n">
+        <v>4.8507838</v>
+      </c>
+      <c r="G416" t="n">
+        <v>52.3109438</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -11687,6 +14187,12 @@
           <t>POINT (4.851035 52.3115129)</t>
         </is>
       </c>
+      <c r="F417" t="n">
+        <v>4.851035</v>
+      </c>
+      <c r="G417" t="n">
+        <v>52.3115129</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -11714,6 +14220,12 @@
           <t>POINT (4.8534016 52.3475341)</t>
         </is>
       </c>
+      <c r="F418" t="n">
+        <v>4.8534016</v>
+      </c>
+      <c r="G418" t="n">
+        <v>52.3475341</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -11741,6 +14253,12 @@
           <t>POINT (4.8391034 52.2908393)</t>
         </is>
       </c>
+      <c r="F419" t="n">
+        <v>4.8391034</v>
+      </c>
+      <c r="G419" t="n">
+        <v>52.2908393</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -11768,6 +14286,12 @@
           <t>POINT (4.8391796 52.2910359)</t>
         </is>
       </c>
+      <c r="F420" t="n">
+        <v>4.8391796</v>
+      </c>
+      <c r="G420" t="n">
+        <v>52.2910359</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -11795,6 +14319,12 @@
           <t>POINT (4.8810698 52.3632085)</t>
         </is>
       </c>
+      <c r="F421" t="n">
+        <v>4.8810698</v>
+      </c>
+      <c r="G421" t="n">
+        <v>52.3632085</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -11822,6 +14352,12 @@
           <t>POINT (4.8731849 52.3408165)</t>
         </is>
       </c>
+      <c r="F422" t="n">
+        <v>4.8731849</v>
+      </c>
+      <c r="G422" t="n">
+        <v>52.3408165</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -11849,6 +14385,12 @@
           <t>POINT (4.898949 52.3620972)</t>
         </is>
       </c>
+      <c r="F423" t="n">
+        <v>4.898949</v>
+      </c>
+      <c r="G423" t="n">
+        <v>52.3620972</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -11876,6 +14418,12 @@
           <t>POINT (4.8989773 52.3621338)</t>
         </is>
       </c>
+      <c r="F424" t="n">
+        <v>4.8989773</v>
+      </c>
+      <c r="G424" t="n">
+        <v>52.3621338</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -11903,6 +14451,12 @@
           <t>POINT (4.9697229 52.3364299)</t>
         </is>
       </c>
+      <c r="F425" t="n">
+        <v>4.9697229</v>
+      </c>
+      <c r="G425" t="n">
+        <v>52.3364299</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -11930,6 +14484,12 @@
           <t>POINT (4.9178945 52.347445)</t>
         </is>
       </c>
+      <c r="F426" t="n">
+        <v>4.9178945</v>
+      </c>
+      <c r="G426" t="n">
+        <v>52.347445</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -11957,6 +14517,12 @@
           <t>POINT (4.9000102 52.3596835)</t>
         </is>
       </c>
+      <c r="F427" t="n">
+        <v>4.9000102</v>
+      </c>
+      <c r="G427" t="n">
+        <v>52.3596835</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -11984,6 +14550,12 @@
           <t>POINT (4.8925358 52.3594772)</t>
         </is>
       </c>
+      <c r="F428" t="n">
+        <v>4.8925358</v>
+      </c>
+      <c r="G428" t="n">
+        <v>52.3594772</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -12011,6 +14583,12 @@
           <t>POINT (4.9613021 52.3382375)</t>
         </is>
       </c>
+      <c r="F429" t="n">
+        <v>4.9613021</v>
+      </c>
+      <c r="G429" t="n">
+        <v>52.3382375</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -12038,6 +14616,12 @@
           <t>POINT (4.9610512 52.3383458)</t>
         </is>
       </c>
+      <c r="F430" t="n">
+        <v>4.9610512</v>
+      </c>
+      <c r="G430" t="n">
+        <v>52.3383458</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -12065,6 +14649,12 @@
           <t>POINT (4.8703967 52.3706445)</t>
         </is>
       </c>
+      <c r="F431" t="n">
+        <v>4.8703967</v>
+      </c>
+      <c r="G431" t="n">
+        <v>52.3706445</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -12092,6 +14682,12 @@
           <t>POINT (4.863249 52.289791)</t>
         </is>
       </c>
+      <c r="F432" t="n">
+        <v>4.863249</v>
+      </c>
+      <c r="G432" t="n">
+        <v>52.289791</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -12119,6 +14715,12 @@
           <t>POINT (4.863919 52.2904102)</t>
         </is>
       </c>
+      <c r="F433" t="n">
+        <v>4.863919</v>
+      </c>
+      <c r="G433" t="n">
+        <v>52.2904102</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -12146,6 +14748,12 @@
           <t>POINT (4.8706118 52.3160769)</t>
         </is>
       </c>
+      <c r="F434" t="n">
+        <v>4.8706118</v>
+      </c>
+      <c r="G434" t="n">
+        <v>52.3160769</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -12173,6 +14781,12 @@
           <t>POINT (4.8706466 52.3156231)</t>
         </is>
       </c>
+      <c r="F435" t="n">
+        <v>4.8706466</v>
+      </c>
+      <c r="G435" t="n">
+        <v>52.3156231</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -12200,6 +14814,12 @@
           <t>POINT (4.8723368 52.3114898)</t>
         </is>
       </c>
+      <c r="F436" t="n">
+        <v>4.8723368</v>
+      </c>
+      <c r="G436" t="n">
+        <v>52.3114898</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -12227,6 +14847,12 @@
           <t>POINT (4.9178096 52.3474274)</t>
         </is>
       </c>
+      <c r="F437" t="n">
+        <v>4.9178096</v>
+      </c>
+      <c r="G437" t="n">
+        <v>52.3474274</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -12254,6 +14880,12 @@
           <t>POINT (4.8954127 52.3470662)</t>
         </is>
       </c>
+      <c r="F438" t="n">
+        <v>4.8954127</v>
+      </c>
+      <c r="G438" t="n">
+        <v>52.3470662</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -12281,6 +14913,12 @@
           <t>POINT (4.8947303 52.3468163)</t>
         </is>
       </c>
+      <c r="F439" t="n">
+        <v>4.8947303</v>
+      </c>
+      <c r="G439" t="n">
+        <v>52.3468163</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -12308,6 +14946,12 @@
           <t>POINT (4.8992878 52.3783193)</t>
         </is>
       </c>
+      <c r="F440" t="n">
+        <v>4.8992878</v>
+      </c>
+      <c r="G440" t="n">
+        <v>52.3783193</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -12335,6 +14979,12 @@
           <t>POINT (4.8991546 52.3782813)</t>
         </is>
       </c>
+      <c r="F441" t="n">
+        <v>4.8991546</v>
+      </c>
+      <c r="G441" t="n">
+        <v>52.3782813</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -12362,6 +15012,12 @@
           <t>POINT (4.8992178 52.378303)</t>
         </is>
       </c>
+      <c r="F442" t="n">
+        <v>4.8992178</v>
+      </c>
+      <c r="G442" t="n">
+        <v>52.378303</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -12389,6 +15045,12 @@
           <t>POINT (4.8988712 52.3786582)</t>
         </is>
       </c>
+      <c r="F443" t="n">
+        <v>4.8988712</v>
+      </c>
+      <c r="G443" t="n">
+        <v>52.3786582</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -12416,6 +15078,12 @@
           <t>POINT (4.8989173 52.378697)</t>
         </is>
       </c>
+      <c r="F444" t="n">
+        <v>4.8989173</v>
+      </c>
+      <c r="G444" t="n">
+        <v>52.378697</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -12443,6 +15111,12 @@
           <t>POINT (4.8993575 52.3783416)</t>
         </is>
       </c>
+      <c r="F445" t="n">
+        <v>4.8993575</v>
+      </c>
+      <c r="G445" t="n">
+        <v>52.3783416</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -12470,6 +15144,12 @@
           <t>POINT (4.8500681 52.3704058)</t>
         </is>
       </c>
+      <c r="F446" t="n">
+        <v>4.8500681</v>
+      </c>
+      <c r="G446" t="n">
+        <v>52.3704058</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -12497,6 +15177,12 @@
           <t>POINT (4.8499792 52.3706818)</t>
         </is>
       </c>
+      <c r="F447" t="n">
+        <v>4.8499792</v>
+      </c>
+      <c r="G447" t="n">
+        <v>52.3706818</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -12524,6 +15210,12 @@
           <t>POINT (4.8464503 52.3771987)</t>
         </is>
       </c>
+      <c r="F448" t="n">
+        <v>4.8464503</v>
+      </c>
+      <c r="G448" t="n">
+        <v>52.3771987</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -12551,6 +15243,12 @@
           <t>POINT (4.8657924 52.360364)</t>
         </is>
       </c>
+      <c r="F449" t="n">
+        <v>4.8657924</v>
+      </c>
+      <c r="G449" t="n">
+        <v>52.360364</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -12578,6 +15276,12 @@
           <t>POINT (4.853975 52.3642479)</t>
         </is>
       </c>
+      <c r="F450" t="n">
+        <v>4.853975</v>
+      </c>
+      <c r="G450" t="n">
+        <v>52.3642479</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -12605,6 +15309,12 @@
           <t>POINT (4.903158 52.3517731)</t>
         </is>
       </c>
+      <c r="F451" t="n">
+        <v>4.903158</v>
+      </c>
+      <c r="G451" t="n">
+        <v>52.3517731</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -12632,6 +15342,12 @@
           <t>POINT (4.8923379 52.3593327)</t>
         </is>
       </c>
+      <c r="F452" t="n">
+        <v>4.8923379</v>
+      </c>
+      <c r="G452" t="n">
+        <v>52.3593327</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -12659,6 +15375,12 @@
           <t>POINT (4.9310414 52.3534088)</t>
         </is>
       </c>
+      <c r="F453" t="n">
+        <v>4.9310414</v>
+      </c>
+      <c r="G453" t="n">
+        <v>52.3534088</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -12686,6 +15408,12 @@
           <t>POINT (4.8828562 52.3527563)</t>
         </is>
       </c>
+      <c r="F454" t="n">
+        <v>4.8828562</v>
+      </c>
+      <c r="G454" t="n">
+        <v>52.3527563</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -12713,6 +15441,12 @@
           <t>POINT (4.8820747 52.3526434)</t>
         </is>
       </c>
+      <c r="F455" t="n">
+        <v>4.8820747</v>
+      </c>
+      <c r="G455" t="n">
+        <v>52.3526434</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -12740,6 +15474,12 @@
           <t>POINT (4.8786695 52.3778393)</t>
         </is>
       </c>
+      <c r="F456" t="n">
+        <v>4.8786695</v>
+      </c>
+      <c r="G456" t="n">
+        <v>52.3778393</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -12767,6 +15507,12 @@
           <t>POINT (4.8821775 52.383238)</t>
         </is>
       </c>
+      <c r="F457" t="n">
+        <v>4.8821775</v>
+      </c>
+      <c r="G457" t="n">
+        <v>52.383238</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -12794,6 +15540,12 @@
           <t>POINT (4.8893427 52.3677188)</t>
         </is>
       </c>
+      <c r="F458" t="n">
+        <v>4.8893427</v>
+      </c>
+      <c r="G458" t="n">
+        <v>52.3677188</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -12821,6 +15573,12 @@
           <t>POINT (4.8806042 52.3587143)</t>
         </is>
       </c>
+      <c r="F459" t="n">
+        <v>4.8806042</v>
+      </c>
+      <c r="G459" t="n">
+        <v>52.3587143</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -12848,6 +15606,12 @@
           <t>POINT (4.9004043 52.3779466)</t>
         </is>
       </c>
+      <c r="F460" t="n">
+        <v>4.9004043</v>
+      </c>
+      <c r="G460" t="n">
+        <v>52.3779466</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -12875,6 +15639,12 @@
           <t>POINT (4.880612 52.3586985)</t>
         </is>
       </c>
+      <c r="F461" t="n">
+        <v>4.880612</v>
+      </c>
+      <c r="G461" t="n">
+        <v>52.3586985</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -12902,6 +15672,12 @@
           <t>POINT (4.8504873 52.3042535)</t>
         </is>
       </c>
+      <c r="F462" t="n">
+        <v>4.8504873</v>
+      </c>
+      <c r="G462" t="n">
+        <v>52.3042535</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -12929,6 +15705,12 @@
           <t>POINT (4.9141489 52.3624363)</t>
         </is>
       </c>
+      <c r="F463" t="n">
+        <v>4.9141489</v>
+      </c>
+      <c r="G463" t="n">
+        <v>52.3624363</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -12956,6 +15738,12 @@
           <t>POINT (4.8914549 52.3494092)</t>
         </is>
       </c>
+      <c r="F464" t="n">
+        <v>4.8914549</v>
+      </c>
+      <c r="G464" t="n">
+        <v>52.3494092</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -12983,6 +15771,12 @@
           <t>POINT (4.850538 52.3052105)</t>
         </is>
       </c>
+      <c r="F465" t="n">
+        <v>4.850538</v>
+      </c>
+      <c r="G465" t="n">
+        <v>52.3052105</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -13010,6 +15804,12 @@
           <t>POINT (4.9009807 52.3777002)</t>
         </is>
       </c>
+      <c r="F466" t="n">
+        <v>4.9009807</v>
+      </c>
+      <c r="G466" t="n">
+        <v>52.3777002</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -13037,6 +15837,12 @@
           <t>POINT (4.9009806 52.3777485)</t>
         </is>
       </c>
+      <c r="F467" t="n">
+        <v>4.9009806</v>
+      </c>
+      <c r="G467" t="n">
+        <v>52.3777485</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -13064,6 +15870,12 @@
           <t>POINT (4.9009723 52.3777976)</t>
         </is>
       </c>
+      <c r="F468" t="n">
+        <v>4.9009723</v>
+      </c>
+      <c r="G468" t="n">
+        <v>52.3777976</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -13091,6 +15903,12 @@
           <t>POINT (4.8987647 52.3785952)</t>
         </is>
       </c>
+      <c r="F469" t="n">
+        <v>4.8987647</v>
+      </c>
+      <c r="G469" t="n">
+        <v>52.3785952</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -13118,6 +15936,12 @@
           <t>POINT (4.8988204 52.3786244)</t>
         </is>
       </c>
+      <c r="F470" t="n">
+        <v>4.8988204</v>
+      </c>
+      <c r="G470" t="n">
+        <v>52.3786244</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -13145,6 +15969,12 @@
           <t>POINT (4.9009743 52.3778019)</t>
         </is>
       </c>
+      <c r="F471" t="n">
+        <v>4.9009743</v>
+      </c>
+      <c r="G471" t="n">
+        <v>52.3778019</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -13172,6 +16002,12 @@
           <t>POINT (4.9009825 52.3777528)</t>
         </is>
       </c>
+      <c r="F472" t="n">
+        <v>4.9009825</v>
+      </c>
+      <c r="G472" t="n">
+        <v>52.3777528</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -13199,6 +16035,12 @@
           <t>POINT (4.9009826 52.3777045)</t>
         </is>
       </c>
+      <c r="F473" t="n">
+        <v>4.9009826</v>
+      </c>
+      <c r="G473" t="n">
+        <v>52.3777045</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -13226,6 +16068,12 @@
           <t>POINT (4.890644 52.3719008)</t>
         </is>
       </c>
+      <c r="F474" t="n">
+        <v>4.890644</v>
+      </c>
+      <c r="G474" t="n">
+        <v>52.3719008</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -13252,6 +16100,12 @@
         <is>
           <t>POINT (4.9899502 52.3580579)</t>
         </is>
+      </c>
+      <c r="F475" t="n">
+        <v>4.9899502</v>
+      </c>
+      <c r="G475" t="n">
+        <v>52.3580579</v>
       </c>
     </row>
   </sheetData>
